--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2CE87B-172C-401B-B0E0-461247CE8EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A3F46-5485-4AC1-AB6F-13BC992150CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{03186EEB-B4DB-42D3-874B-A7DB5ADE8DD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{7EDD7D08-6374-4FF2-BD06-C21ADA3D066B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="99">
   <si>
@@ -205,9 +243,6 @@
     <t>SuiteCRM: Account</t>
   </si>
   <si>
-    <t>SuiteCRM: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>salutation</t>
   </si>
   <si>
@@ -307,9 +342,6 @@
     <t>picklist</t>
   </si>
   <si>
-    <t>SuiteCRM: Custom Entity</t>
-  </si>
-  <si>
     <t>SuiteCRM: Prospect</t>
   </si>
   <si>
@@ -362,13 +394,19 @@
   </si>
   <si>
     <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>SuiteCRM: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SuiteCRM: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,6 +489,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -490,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="105">
+  <borders count="102">
     <border>
       <left/>
       <right/>
@@ -506,37 +551,6 @@
         <color theme="0"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1809,98 +1823,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1909,110 +1923,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,14 +2008,44 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3655,11 +3669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3702,7 +3716,7 @@
       <c r="K3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3731,23 +3745,23 @@
       <c r="P4" s="125"/>
       <c r="Q4" s="125"/>
       <c r="S4" s="125" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="T4" s="125"/>
       <c r="U4" s="125"/>
       <c r="V4" s="7"/>
       <c r="W4" s="126" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="X4" s="127"/>
       <c r="Y4" s="128"/>
       <c r="AA4" s="126" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AB4" s="127"/>
       <c r="AC4" s="128"/>
     </row>
-    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="104" t="s">
         <v>3</v>
@@ -3852,19 +3866,19 @@
         <v>8</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" s="30"/>
       <c r="P8" s="31"/>
@@ -3873,10 +3887,10 @@
         <v>8</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W8" s="81"/>
       <c r="X8" s="18"/>
@@ -3897,19 +3911,19 @@
         <v>9</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="30" t="s">
         <v>9</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9" s="30"/>
       <c r="P9" s="31"/>
@@ -3918,10 +3932,10 @@
         <v>9</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W9" s="81"/>
       <c r="X9" s="18"/>
@@ -3942,19 +3956,19 @@
         <v>10</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>10</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10" s="30"/>
       <c r="P10" s="31"/>
@@ -3963,10 +3977,10 @@
         <v>10</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W10" s="81"/>
       <c r="X10" s="18"/>
@@ -3987,19 +4001,19 @@
         <v>11</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="30" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11" s="30"/>
       <c r="P11" s="31"/>
@@ -4008,10 +4022,10 @@
         <v>11</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W11" s="81"/>
       <c r="X11" s="18"/>
@@ -4032,10 +4046,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="31"/>
@@ -4044,19 +4058,19 @@
         <v>14</v>
       </c>
       <c r="P12" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S12" s="30" t="s">
         <v>13</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W12" s="81"/>
       <c r="X12" s="18"/>
@@ -4077,37 +4091,37 @@
         <v>15</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W13" s="81"/>
       <c r="X13" s="18"/>
@@ -4128,37 +4142,37 @@
         <v>16</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="37" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O14" s="37" t="s">
         <v>16</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S14" s="37" t="s">
         <v>16</v>
       </c>
       <c r="T14" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U14" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W14" s="81"/>
       <c r="X14" s="18"/>
@@ -4179,37 +4193,37 @@
         <v>17</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O15" s="33" t="s">
         <v>17</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S15" s="33" t="s">
         <v>17</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U15" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W15" s="81"/>
       <c r="X15" s="18"/>
@@ -4227,40 +4241,40 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
       <c r="G16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S16" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W16" s="81"/>
       <c r="X16" s="18"/>
@@ -4281,37 +4295,37 @@
         <v>18</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S17" s="30" t="s">
         <v>18</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W17" s="81"/>
       <c r="X17" s="18"/>
@@ -4329,40 +4343,40 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
       <c r="G18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>65</v>
-      </c>
       <c r="K18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="O18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="32" t="s">
-        <v>65</v>
-      </c>
       <c r="S18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="T18" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="32" t="s">
-        <v>65</v>
       </c>
       <c r="W18" s="81"/>
       <c r="X18" s="18"/>
@@ -4383,19 +4397,19 @@
         <v>20</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="30" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O19" s="30"/>
       <c r="P19" s="31"/>
@@ -4404,10 +4418,10 @@
         <v>20</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W19" s="81"/>
       <c r="X19" s="18"/>
@@ -4428,37 +4442,37 @@
         <v>21</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="37" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="37" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S20" s="37" t="s">
         <v>21</v>
       </c>
       <c r="T20" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U20" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W20" s="81"/>
       <c r="X20" s="18"/>
@@ -4476,40 +4490,40 @@
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
       <c r="G21" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S21" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T21" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W21" s="81"/>
       <c r="X21" s="18"/>
@@ -4530,37 +4544,37 @@
         <v>23</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>23</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S22" s="17" t="s">
         <v>23</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U22" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W22" s="81"/>
       <c r="X22" s="18"/>
@@ -4581,10 +4595,10 @@
         <v>25</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
@@ -4614,19 +4628,19 @@
         <v>26</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O24" s="17"/>
       <c r="P24" s="18"/>
@@ -4643,7 +4657,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="43"/>
@@ -4656,13 +4670,13 @@
       <c r="L25" s="18"/>
       <c r="M25" s="19"/>
       <c r="O25" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="Q25" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="18"/>
@@ -4676,7 +4690,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="43"/>
@@ -4689,13 +4703,13 @@
       <c r="L26" s="18"/>
       <c r="M26" s="19"/>
       <c r="O26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="Q26" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S26" s="17"/>
       <c r="T26" s="18"/>
@@ -4748,53 +4762,53 @@
     </row>
     <row r="29" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="102"/>
       <c r="C29" s="102"/>
       <c r="D29" s="102"/>
       <c r="E29" s="103"/>
-      <c r="G29" s="132" t="s">
+      <c r="G29" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="121"/>
       <c r="J29" s="62"/>
-      <c r="K29" s="132" t="s">
+      <c r="K29" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="133"/>
-      <c r="M29" s="134"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="121"/>
       <c r="N29" s="62"/>
-      <c r="O29" s="135" t="s">
+      <c r="O29" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="137"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="124"/>
       <c r="R29" s="63"/>
-      <c r="S29" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" s="136"/>
-      <c r="U29" s="137"/>
+      <c r="S29" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="T29" s="123"/>
+      <c r="U29" s="124"/>
       <c r="V29" s="63"/>
-      <c r="W29" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="131"/>
-      <c r="AA29" s="129" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="131"/>
+      <c r="W29" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="118"/>
+      <c r="AA29" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="118"/>
     </row>
     <row r="30" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="104" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="106"/>
       <c r="D30" s="106"/>
@@ -4858,15 +4872,15 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="73"/>
       <c r="E31" s="70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="18"/>
@@ -4889,7 +4903,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
@@ -4916,7 +4930,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="76"/>
@@ -4943,7 +4957,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="76"/>
@@ -4970,7 +4984,7 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="76"/>
@@ -4997,7 +5011,7 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="76"/>
@@ -5024,7 +5038,7 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="76"/>
@@ -5051,7 +5065,7 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="76"/>
@@ -5078,7 +5092,7 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="76"/>
@@ -5105,7 +5119,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="76"/>
@@ -5132,7 +5146,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" s="78"/>
       <c r="C41" s="79"/>
@@ -5184,10 +5198,10 @@
     </row>
     <row r="43" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="108" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B43" s="109" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="109"/>
       <c r="D43" s="109"/>
@@ -5251,7 +5265,7 @@
     </row>
     <row r="44" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
@@ -5278,7 +5292,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="75"/>
       <c r="C45" s="76"/>
@@ -5305,7 +5319,7 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="76"/>
@@ -5332,7 +5346,7 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="76"/>
@@ -5359,7 +5373,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" s="75"/>
       <c r="C48" s="76"/>
@@ -5386,7 +5400,7 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" s="75"/>
       <c r="C49" s="76"/>
@@ -5413,7 +5427,7 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="75"/>
       <c r="C50" s="76"/>
@@ -5440,7 +5454,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" s="75"/>
       <c r="C51" s="76"/>
@@ -5467,7 +5481,7 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="75"/>
       <c r="C52" s="76"/>
@@ -5494,7 +5508,7 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" s="78"/>
       <c r="C53" s="79"/>
@@ -5606,22 +5620,22 @@
       <c r="U56" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="W56" s="10" t="s">
+      <c r="W56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="X56" s="11" t="s">
+      <c r="X56" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Y56" s="12" t="s">
+      <c r="Y56" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="AA56" s="10" t="s">
+      <c r="AA56" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="AB56" s="11" t="s">
+      <c r="AB56" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="AC56" s="12" t="s">
+      <c r="AC56" s="101" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5629,11 +5643,11 @@
       <c r="A57" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="137"/>
       <c r="E57" s="56"/>
       <c r="G57" s="30"/>
       <c r="H57" s="31"/>
@@ -5647,22 +5661,22 @@
       <c r="S57" s="30"/>
       <c r="T57" s="31"/>
       <c r="U57" s="32"/>
-      <c r="W57" s="30"/>
+      <c r="W57" s="71"/>
       <c r="X57" s="31"/>
-      <c r="Y57" s="32"/>
-      <c r="AA57" s="30"/>
+      <c r="Y57" s="72"/>
+      <c r="AA57" s="71"/>
       <c r="AB57" s="31"/>
-      <c r="AC57" s="32"/>
+      <c r="AC57" s="72"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="117"/>
-      <c r="D58" s="118"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="131"/>
       <c r="E58" s="58"/>
       <c r="G58" s="30"/>
       <c r="H58" s="31"/>
@@ -5676,22 +5690,22 @@
       <c r="S58" s="30"/>
       <c r="T58" s="31"/>
       <c r="U58" s="32"/>
-      <c r="W58" s="30"/>
+      <c r="W58" s="71"/>
       <c r="X58" s="31"/>
-      <c r="Y58" s="32"/>
-      <c r="AA58" s="30"/>
+      <c r="Y58" s="72"/>
+      <c r="AA58" s="71"/>
       <c r="AB58" s="31"/>
-      <c r="AC58" s="32"/>
+      <c r="AC58" s="72"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="118"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="131"/>
       <c r="E59" s="58"/>
       <c r="G59" s="30"/>
       <c r="H59" s="31"/>
@@ -5705,22 +5719,22 @@
       <c r="S59" s="30"/>
       <c r="T59" s="31"/>
       <c r="U59" s="32"/>
-      <c r="W59" s="30"/>
+      <c r="W59" s="71"/>
       <c r="X59" s="31"/>
-      <c r="Y59" s="32"/>
-      <c r="AA59" s="30"/>
+      <c r="Y59" s="72"/>
+      <c r="AA59" s="71"/>
       <c r="AB59" s="31"/>
-      <c r="AC59" s="32"/>
+      <c r="AC59" s="72"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="117"/>
-      <c r="D60" s="118"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="131"/>
       <c r="E60" s="58"/>
       <c r="G60" s="30"/>
       <c r="H60" s="31"/>
@@ -5734,18 +5748,18 @@
       <c r="S60" s="30"/>
       <c r="T60" s="31"/>
       <c r="U60" s="32"/>
-      <c r="W60" s="30"/>
+      <c r="W60" s="71"/>
       <c r="X60" s="31"/>
-      <c r="Y60" s="32"/>
-      <c r="AA60" s="30"/>
+      <c r="Y60" s="72"/>
+      <c r="AA60" s="71"/>
       <c r="AB60" s="31"/>
-      <c r="AC60" s="32"/>
+      <c r="AC60" s="72"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="118"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="131"/>
       <c r="E61" s="58"/>
       <c r="G61" s="30"/>
       <c r="H61" s="31"/>
@@ -5759,18 +5773,18 @@
       <c r="S61" s="30"/>
       <c r="T61" s="31"/>
       <c r="U61" s="32"/>
-      <c r="W61" s="30"/>
+      <c r="W61" s="71"/>
       <c r="X61" s="31"/>
-      <c r="Y61" s="32"/>
-      <c r="AA61" s="30"/>
+      <c r="Y61" s="72"/>
+      <c r="AA61" s="71"/>
       <c r="AB61" s="31"/>
-      <c r="AC61" s="32"/>
+      <c r="AC61" s="72"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="118"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="131"/>
       <c r="E62" s="58"/>
       <c r="G62" s="30"/>
       <c r="H62" s="31"/>
@@ -5784,18 +5798,18 @@
       <c r="S62" s="30"/>
       <c r="T62" s="31"/>
       <c r="U62" s="32"/>
-      <c r="W62" s="30"/>
+      <c r="W62" s="71"/>
       <c r="X62" s="31"/>
-      <c r="Y62" s="32"/>
-      <c r="AA62" s="30"/>
+      <c r="Y62" s="72"/>
+      <c r="AA62" s="71"/>
       <c r="AB62" s="31"/>
-      <c r="AC62" s="32"/>
+      <c r="AC62" s="72"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="57"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="118"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="131"/>
       <c r="E63" s="58"/>
       <c r="G63" s="30"/>
       <c r="H63" s="31"/>
@@ -5809,18 +5823,18 @@
       <c r="S63" s="30"/>
       <c r="T63" s="31"/>
       <c r="U63" s="32"/>
-      <c r="W63" s="30"/>
+      <c r="W63" s="71"/>
       <c r="X63" s="31"/>
-      <c r="Y63" s="32"/>
-      <c r="AA63" s="30"/>
+      <c r="Y63" s="72"/>
+      <c r="AA63" s="71"/>
       <c r="AB63" s="31"/>
-      <c r="AC63" s="32"/>
+      <c r="AC63" s="72"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="118"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="131"/>
       <c r="E64" s="58"/>
       <c r="G64" s="30"/>
       <c r="H64" s="31"/>
@@ -5834,18 +5848,18 @@
       <c r="S64" s="30"/>
       <c r="T64" s="31"/>
       <c r="U64" s="32"/>
-      <c r="W64" s="30"/>
+      <c r="W64" s="71"/>
       <c r="X64" s="31"/>
-      <c r="Y64" s="32"/>
-      <c r="AA64" s="30"/>
+      <c r="Y64" s="72"/>
+      <c r="AA64" s="71"/>
       <c r="AB64" s="31"/>
-      <c r="AC64" s="32"/>
+      <c r="AC64" s="72"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="118"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="131"/>
       <c r="E65" s="58"/>
       <c r="G65" s="30"/>
       <c r="H65" s="31"/>
@@ -5859,18 +5873,18 @@
       <c r="S65" s="30"/>
       <c r="T65" s="31"/>
       <c r="U65" s="32"/>
-      <c r="W65" s="30"/>
+      <c r="W65" s="71"/>
       <c r="X65" s="31"/>
-      <c r="Y65" s="32"/>
-      <c r="AA65" s="30"/>
+      <c r="Y65" s="72"/>
+      <c r="AA65" s="71"/>
       <c r="AB65" s="31"/>
-      <c r="AC65" s="32"/>
+      <c r="AC65" s="72"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="118"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="131"/>
       <c r="E66" s="58"/>
       <c r="G66" s="30"/>
       <c r="H66" s="31"/>
@@ -5884,18 +5898,18 @@
       <c r="S66" s="30"/>
       <c r="T66" s="31"/>
       <c r="U66" s="32"/>
-      <c r="W66" s="30"/>
+      <c r="W66" s="71"/>
       <c r="X66" s="31"/>
-      <c r="Y66" s="32"/>
-      <c r="AA66" s="30"/>
+      <c r="Y66" s="72"/>
+      <c r="AA66" s="71"/>
       <c r="AB66" s="31"/>
-      <c r="AC66" s="32"/>
+      <c r="AC66" s="72"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="59"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="121"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="134"/>
       <c r="E67" s="60"/>
       <c r="G67" s="51"/>
       <c r="H67" s="52"/>
@@ -5909,12 +5923,12 @@
       <c r="S67" s="51"/>
       <c r="T67" s="52"/>
       <c r="U67" s="53"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="53"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="53"/>
+      <c r="W67" s="86"/>
+      <c r="X67" s="87"/>
+      <c r="Y67" s="88"/>
+      <c r="AA67" s="86"/>
+      <c r="AB67" s="87"/>
+      <c r="AC67" s="88"/>
     </row>
     <row r="68" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5927,18 +5941,6 @@
     <protectedRange sqref="N31:N42 J31:J42 R31:R42 A31:F42 A44:U54" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
@@ -5950,6 +5952,18 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B62:D62"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="W29:Y29"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
     <cfRule type="expression" dxfId="91" priority="95">
@@ -6319,19 +6333,17 @@
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27 C31:D42 C44:D54" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC57:AC67 Y7:Y27 AC7:AC27 Y57:Y67 Q57:Q67 Q7:Q27 U7:U27 M57:M67 I57:I67 I7:I27 U57:U67 M7:M27 Y31:Y42 Q31:Q42 M31:M42 I31:I42 Y44:Y54 U31:U42 AC31:AC42 AC44:AC54" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I44:I54 M44:M54 Q44:Q54 U44:U54" xr:uid="{D00FA199-3315-49A4-BB08-FE9FD3B30D25}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 I31:I42 M31:M42 Q31:Q42 U31:U42 Y31:Y42 AC31:AC42 I44:I54 M44:M54 Q44:Q54 U44:U54 Y44:Y54 AC44:AC54 I57:I66 I67 M57:M67 Q57:Q67 U57:U67 Y57:Y66 AC57:AC67 Y67" xr:uid="{19E6BB1B-32A9-4722-BF39-80571B5ECB74}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A3F46-5485-4AC1-AB6F-13BC992150CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCD9E45-48FF-4A2B-981D-F4F135A6F42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="2730" yWindow="1860" windowWidth="18630" windowHeight="14340" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2051,7 +2051,51 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2699,28 +2743,6 @@
       </font>
       <fill>
         <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -3672,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5938,7 +5960,7 @@
     <protectedRange sqref="H7:I27 T7:U27" name="Contact Fields_1"/>
     <protectedRange sqref="L7:M27" name="Contact Fields_2"/>
     <protectedRange sqref="V29:Y30 V43:Y43 AA29:AC30 AA43:AC43" name="customEntities_1"/>
-    <protectedRange sqref="N31:N42 J31:J42 R31:R42 A31:F42 A44:U54" name="Questionnaire_2"/>
+    <protectedRange sqref="N31:N42 J31:J42 R31:R42 A44:U54 A31:F42" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="23">
     <mergeCell ref="B64:D64"/>
@@ -5966,54 +5988,62 @@
     <mergeCell ref="W29:Y29"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
-    <cfRule type="expression" dxfId="91" priority="95">
+    <cfRule type="expression" dxfId="93" priority="101">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
+    <cfRule type="expression" dxfId="92" priority="102">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57:AC67">
-    <cfRule type="expression" dxfId="89" priority="93">
+    <cfRule type="expression" dxfId="91" priority="99">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="94">
+    <cfRule type="expression" dxfId="90" priority="100">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W57:Y67">
-    <cfRule type="expression" dxfId="87" priority="91">
+    <cfRule type="expression" dxfId="89" priority="97">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="92">
+    <cfRule type="expression" dxfId="88" priority="98">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57:Q67">
-    <cfRule type="expression" dxfId="85" priority="89">
+    <cfRule type="expression" dxfId="87" priority="95">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="90">
+    <cfRule type="expression" dxfId="86" priority="96">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57:M67">
-    <cfRule type="expression" dxfId="83" priority="87">
+    <cfRule type="expression" dxfId="85" priority="93">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="88">
+    <cfRule type="expression" dxfId="84" priority="94">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:I67">
-    <cfRule type="expression" dxfId="81" priority="85">
+    <cfRule type="expression" dxfId="83" priority="91">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="86">
+    <cfRule type="expression" dxfId="82" priority="92">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A26">
+    <cfRule type="expression" dxfId="81" priority="89">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="90">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I27">
     <cfRule type="expression" dxfId="79" priority="83">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -6021,323 +6051,323 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I27">
-    <cfRule type="expression" dxfId="77" priority="77">
+  <conditionalFormatting sqref="S28:V28 S8:S12 V8:V27 S14:S27">
+    <cfRule type="expression" dxfId="77" priority="81">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28:V28 S8:S12 V8:V27 S14:S27">
-    <cfRule type="expression" dxfId="75" priority="75">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
+    <cfRule type="expression" dxfId="76" priority="82">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57:U67">
-    <cfRule type="expression" dxfId="73" priority="73">
+    <cfRule type="expression" dxfId="75" priority="79">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74">
+    <cfRule type="expression" dxfId="74" priority="80">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:U27">
-    <cfRule type="expression" dxfId="71" priority="71">
+    <cfRule type="expression" dxfId="73" priority="77">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
+    <cfRule type="expression" dxfId="72" priority="78">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="69" priority="69">
+    <cfRule type="expression" dxfId="71" priority="75">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
+    <cfRule type="expression" dxfId="70" priority="76">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M27">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="69" priority="73">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
+    <cfRule type="expression" dxfId="68" priority="74">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V42:Y42">
-    <cfRule type="expression" dxfId="65" priority="25">
+    <cfRule type="expression" dxfId="67" priority="31">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="26">
+    <cfRule type="expression" dxfId="66" priority="32">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z31:Z36 B36 A36:A38 C36:F38 A30:R30 A29:F29 J29 N29 R29 A31:F35 A39:F42 N31:N42 J31:J42 R31:R42 A43:R54 V29:Z30 V43:Y43 AD29:AG54">
-    <cfRule type="expression" dxfId="63" priority="59">
+  <conditionalFormatting sqref="Z31:Z36 B36 A36:A38 C36:F38 A30:R30 A29:F29 J29 N29 R29 A31:F35 N31:N42 J31:J42 R31:R42 A43:R54 V29:Z30 V43:Y43 AD29:AG54 A39:F42">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="64" priority="66">
       <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B38">
-    <cfRule type="expression" dxfId="61" priority="57">
-      <formula>$C36="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58">
-      <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O32">
-    <cfRule type="expression" dxfId="59" priority="55">
+    <cfRule type="expression" dxfId="63" priority="61">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q32">
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33:O42">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:Q42">
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="57" priority="55">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K32">
-    <cfRule type="expression" dxfId="51" priority="47">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M32">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K42">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M42">
-    <cfRule type="expression" dxfId="45" priority="41">
+    <cfRule type="expression" dxfId="49" priority="47">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G32">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I32">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G42">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I42">
-    <cfRule type="expression" dxfId="37" priority="33">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31:Y41">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="39" priority="37">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:Y53">
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V54:Y54">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51">
-    <cfRule type="expression" dxfId="29" priority="61">
+    <cfRule type="expression" dxfId="33" priority="67">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="62">
+    <cfRule type="expression" dxfId="32" priority="68">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37 Z42:Z49">
-    <cfRule type="expression" dxfId="27" priority="63">
+    <cfRule type="expression" dxfId="31" priority="69">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="64">
+    <cfRule type="expression" dxfId="30" priority="70">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50 Z38:Z41">
-    <cfRule type="expression" dxfId="25" priority="65">
+    <cfRule type="expression" dxfId="29" priority="71">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="66">
+    <cfRule type="expression" dxfId="28" priority="72">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:R55 W55:AK55">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:V55">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30 S43:U54">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:S32">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:U32">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:S42">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:U42">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42:AC42">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA29:AC30 AA43:AC43">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA31:AC41">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AC53">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA54:AC54">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$D54="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D37="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C38="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27 C31:D42 C44:D54" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 I31:I42 M31:M42 Q31:Q42 U31:U42 Y31:Y42 AC31:AC42 I44:I54 M44:M54 Q44:Q54 U44:U54 Y44:Y54 AC44:AC54 I57:I66 I67 M57:M67 Q57:Q67 U57:U67 Y57:Y66 AC57:AC67 Y67" xr:uid="{19E6BB1B-32A9-4722-BF39-80571B5ECB74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 I31:I42 M31:M42 Q31:Q42 U31:U42 Y31:Y42 AC31:AC42 I44:I54 M44:M54 Q44:Q54 U44:U54 Y44:Y54 AC44:AC54 I57:I67 M57:M67 Q57:Q67 U57:U67 AC57:AC67 Y57:Y67" xr:uid="{19E6BB1B-32A9-4722-BF39-80571B5ECB74}">
       <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SuiteCRM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2CE87B-172C-401B-B0E0-461247CE8EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC5CBA-E5DD-4F4E-8912-98315A6F897E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -467,18 +467,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,8 +477,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEB6758"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5B0A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="105">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -511,37 +511,6 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -570,13 +539,826 @@
     </border>
     <border>
       <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFE6C36"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFEB6758"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFEB6758"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFEB6758"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFEB6758"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF5B0A9"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFF5B0A9"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFF5B0A9"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -591,7 +1373,7 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -603,10 +1385,10 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -615,63 +1397,7 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </left>
       <right/>
       <top style="thin">
@@ -682,17 +1408,8 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
@@ -701,104 +1418,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,198 +1436,33 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
@@ -1007,456 +1470,29 @@
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1467,9 +1503,11 @@
         <color theme="0"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1477,54 +1515,23 @@
         <color theme="0"/>
       </left>
       <right style="thick">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
+        <color rgb="FFF5B0A9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFF5B0A9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF5B0A9"/>
       </left>
       <right/>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1535,7 +1542,7 @@
       <left/>
       <right/>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1545,10 +1552,10 @@
     <border>
       <left/>
       <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
+        <color rgb="FFF5B0A9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF0070C0"/>
@@ -1557,234 +1564,23 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FFF5B0A9"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thick">
-        <color rgb="FFFE6C36"/>
+        <color rgb="FFF5B0A9"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1792,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1809,98 +1605,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1909,71 +1690,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,59 +1750,127 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3052,6 +2885,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5B0A9"/>
+      <color rgb="FFEB6758"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3658,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3702,7 +3541,7 @@
       <c r="K3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3714,2207 +3553,2207 @@
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="125" t="s">
+      <c r="K4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="O4" s="125" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="O4" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="S4" s="125" t="s">
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="S4" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="126" t="s">
+      <c r="W4" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="128"/>
-      <c r="AA4" s="126" t="s">
+      <c r="X4" s="108"/>
+      <c r="Y4" s="109"/>
+      <c r="AA4" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="128"/>
-    </row>
-    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="109"/>
+    </row>
+    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="U6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="99" t="s">
+      <c r="W6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="100" t="s">
+      <c r="X6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="101" t="s">
+      <c r="Y6" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="99" t="s">
+      <c r="AA6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="100" t="s">
+      <c r="AB6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="101" t="s">
+      <c r="AC6" s="112" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="82"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="82"/>
-    </row>
-    <row r="8" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="91"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="91"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="91"/>
+      <c r="S7" s="90"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="91"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="114"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="114"/>
+    </row>
+    <row r="8" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="G8" s="30" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="G8" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="O8" s="30"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="S8" s="30" t="s">
+      <c r="O8" s="90"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="91"/>
+      <c r="S8" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="U8" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="W8" s="81"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="82"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="82"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="114"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="114"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="G9" s="30" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="G9" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="S9" s="30" t="s">
+      <c r="O9" s="90"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="91"/>
+      <c r="S9" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="32" t="s">
+      <c r="U9" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W9" s="81"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="82"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="72"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="114"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="119"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="G10" s="30" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="S10" s="30" t="s">
+      <c r="O10" s="90"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="91"/>
+      <c r="S10" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="T10" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="32" t="s">
+      <c r="U10" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="82"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="72"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="114"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="119"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="G11" s="30" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="32"/>
-      <c r="S11" s="30" t="s">
+      <c r="O11" s="90"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="91"/>
+      <c r="S11" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="31" t="s">
+      <c r="T11" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="32" t="s">
+      <c r="U11" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W11" s="81"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="82"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="72"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="114"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="119"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="G12" s="30" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="G12" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="19"/>
-      <c r="O12" s="30" t="s">
+      <c r="K12" s="90"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="91"/>
+      <c r="O12" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="Q12" s="32" t="s">
+      <c r="Q12" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="31" t="s">
+      <c r="T12" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W12" s="81"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="82"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="72"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="114"/>
+      <c r="AA12" s="118"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="119"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="G13" s="17" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" s="32" t="s">
+      <c r="Q13" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="S13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="T13" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W13" s="81"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="82"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="72"/>
-    </row>
-    <row r="14" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="W13" s="113"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="114"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="119"/>
+    </row>
+    <row r="14" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="G14" s="37" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="G14" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="31" t="s">
+      <c r="T14" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="W14" s="81"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="82"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="82"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="114"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="114"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="G15" s="33" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="33" t="s">
+      <c r="O15" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="32" t="s">
+      <c r="Q15" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="33" t="s">
+      <c r="S15" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="T15" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="U15" s="42" t="s">
+      <c r="U15" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W15" s="81"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="82"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="72"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="114"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="119"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="G16" s="30" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="G16" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="O16" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="30" t="s">
+      <c r="S16" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="T16" s="31" t="s">
+      <c r="T16" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W16" s="81"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="82"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="72"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="114"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="119"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="G17" s="30" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="G17" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S17" s="30" t="s">
+      <c r="S17" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="31" t="s">
+      <c r="T17" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="U17" s="32" t="s">
+      <c r="U17" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W17" s="81"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="82"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="72"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="114"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="119"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="G18" s="30" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="30" t="s">
+      <c r="O18" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="30" t="s">
+      <c r="S18" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="T18" s="31" t="s">
+      <c r="T18" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="32" t="s">
+      <c r="U18" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W18" s="81"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="82"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="72"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="114"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="119"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="G19" s="30" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="G19" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
-      <c r="S19" s="30" t="s">
+      <c r="O19" s="90"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="91"/>
+      <c r="S19" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="31" t="s">
+      <c r="T19" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="32" t="s">
+      <c r="U19" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W19" s="81"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="82"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="72"/>
-    </row>
-    <row r="20" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="W19" s="113"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="114"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="119"/>
+    </row>
+    <row r="20" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="G20" s="37" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="G20" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="19" t="s">
+      <c r="M20" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O20" s="37" t="s">
+      <c r="O20" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="P20" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="38" t="s">
+      <c r="Q20" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="37" t="s">
+      <c r="S20" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="31" t="s">
+      <c r="T20" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="U20" s="38" t="s">
+      <c r="U20" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="W20" s="81"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="82"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="82"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="114"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="114"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="G21" s="30" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="O21" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="S21" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="T21" s="31" t="s">
+      <c r="T21" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="32" t="s">
+      <c r="U21" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W21" s="81"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="82"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="72"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="114"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="119"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="G22" s="17" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="G22" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="O22" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="Q22" s="19" t="s">
+      <c r="Q22" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="S22" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="U22" s="19" t="s">
+      <c r="U22" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="W22" s="81"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="82"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="82"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="114"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="114"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="G23" s="17" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="G23" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="82"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="82"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="91"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="91"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="91"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="114"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="114"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="G24" s="17" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="G24" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="O24" s="17"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="19"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="19"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="82"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="82"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="91"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="91"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="114"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="114"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="O25" s="17" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="91"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="91"/>
+      <c r="O25" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="19" t="s">
+      <c r="Q25" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S25" s="17"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="19"/>
-      <c r="W25" s="81"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="82"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="82"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="91"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="114"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="114"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
-      <c r="O26" s="17" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="91"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="91"/>
+      <c r="O26" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="Q26" s="19" t="s">
+      <c r="Q26" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="S26" s="17"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="19"/>
-      <c r="W26" s="81"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="82"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="82"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="91"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="114"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="114"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="53"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="88"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="88"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="96"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="96"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="96"/>
+      <c r="W27" s="115"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="117"/>
+      <c r="AA27" s="115"/>
+      <c r="AB27" s="116"/>
+      <c r="AC27" s="117"/>
     </row>
     <row r="28" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="K28" s="54"/>
-      <c r="M28" s="55"/>
-      <c r="O28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="S28" s="54"/>
-      <c r="U28" s="55"/>
-      <c r="W28" s="54"/>
-      <c r="Y28" s="55"/>
-      <c r="AA28" s="54"/>
-      <c r="AC28" s="55"/>
+      <c r="G28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="K28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="O28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="S28" s="39"/>
+      <c r="U28" s="40"/>
+      <c r="W28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="AA28" s="39"/>
+      <c r="AC28" s="40"/>
     </row>
     <row r="29" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="G29" s="132" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="G29" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="132" t="s">
+      <c r="H29" s="102"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="133"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="135" t="s">
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="135" t="s">
+      <c r="P29" s="99"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="T29" s="136"/>
-      <c r="U29" s="137"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="129" t="s">
+      <c r="T29" s="99"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="131"/>
-      <c r="AA29" s="129" t="s">
+      <c r="X29" s="121"/>
+      <c r="Y29" s="122"/>
+      <c r="AA29" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="131"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="122"/>
     </row>
     <row r="30" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107" t="s">
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="K30" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="L30" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="66" t="s">
+      <c r="M30" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q30" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="S30" s="10" t="s">
+      <c r="S30" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="U30" s="12" t="s">
+      <c r="U30" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="W30" s="67" t="s">
+      <c r="W30" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="X30" s="68" t="s">
+      <c r="X30" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Y30" s="69" t="s">
+      <c r="Y30" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="AA30" s="67" t="s">
+      <c r="AA30" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AB30" s="68" t="s">
+      <c r="AB30" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="AC30" s="69" t="s">
+      <c r="AC30" s="112" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="70" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="32"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="32"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="32"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="32"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="72"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="72"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="91"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="91"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="91"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="91"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="119"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="119"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="70"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="32"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="32"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="32"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="32"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="72"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="72"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="91"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="91"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="91"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="91"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="119"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="119"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="77"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="32"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="32"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="32"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="32"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="72"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="72"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="54"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="91"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="91"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="91"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="91"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="119"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="119"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="77"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="32"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="32"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="32"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="32"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="72"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="72"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="54"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="91"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="91"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="91"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="91"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="119"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="119"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="77"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="32"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="32"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="32"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="32"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="72"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="72"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="54"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="91"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="91"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="91"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="91"/>
+      <c r="W35" s="118"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="119"/>
+      <c r="AA35" s="118"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="119"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="77"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="32"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="32"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="32"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="32"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="72"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="72"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="54"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="91"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="91"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="91"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="91"/>
+      <c r="W36" s="118"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="119"/>
+      <c r="AA36" s="118"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="119"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="77"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="32"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="32"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="32"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="32"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="72"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="72"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="54"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="91"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="91"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="86"/>
+      <c r="Q37" s="91"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="86"/>
+      <c r="U37" s="91"/>
+      <c r="W37" s="118"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="119"/>
+      <c r="AA37" s="118"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="119"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="77"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="32"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="32"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="32"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="32"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="72"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="72"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="54"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="91"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="91"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="91"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="91"/>
+      <c r="W38" s="118"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="119"/>
+      <c r="AA38" s="118"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="119"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="77"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="32"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="32"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="32"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="32"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="72"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="72"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="54"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="91"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="91"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="91"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="91"/>
+      <c r="W39" s="118"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="119"/>
+      <c r="AA39" s="118"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="119"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="77"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="32"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="32"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="32"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="32"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="72"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="72"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="54"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="91"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="91"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="91"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="91"/>
+      <c r="W40" s="118"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="119"/>
+      <c r="AA40" s="118"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="119"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="80"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="19"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="19"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="82"/>
-      <c r="AA41" s="81"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="82"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="57"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="91"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="91"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="91"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="91"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="114"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="114"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="80"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="19"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="19"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="19"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="19"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="88"/>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="87"/>
-      <c r="AC42" s="88"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="57"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="91"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="96"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="96"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="96"/>
+      <c r="W42" s="115"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="117"/>
+      <c r="AA42" s="115"/>
+      <c r="AB42" s="116"/>
+      <c r="AC42" s="117"/>
     </row>
     <row r="43" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="110" t="s">
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="L43" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="M43" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="89" t="s">
+      <c r="O43" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="90" t="s">
+      <c r="P43" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="Q43" s="91" t="s">
+      <c r="Q43" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="S43" s="89" t="s">
+      <c r="S43" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="T43" s="90" t="s">
+      <c r="T43" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="U43" s="91" t="s">
+      <c r="U43" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="92" t="s">
+      <c r="W43" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="X43" s="93" t="s">
+      <c r="X43" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Y43" s="94" t="s">
+      <c r="Y43" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="AA43" s="92" t="s">
+      <c r="AA43" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AB43" s="93" t="s">
+      <c r="AB43" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="AC43" s="94" t="s">
+      <c r="AC43" s="125" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="70"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="32"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="42"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="42"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="96"/>
-      <c r="Y44" s="97"/>
-      <c r="AA44" s="95"/>
-      <c r="AB44" s="96"/>
-      <c r="AC44" s="97"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="49"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="91"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="91"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="91"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="91"/>
+      <c r="W44" s="129"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="130"/>
+      <c r="AA44" s="126"/>
+      <c r="AB44" s="127"/>
+      <c r="AC44" s="128"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="77"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="32"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="32"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="72"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="72"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="54"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="91"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="91"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="91"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="91"/>
+      <c r="W45" s="118"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="119"/>
+      <c r="AA45" s="118"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="119"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="77"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="32"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="32"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="72"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="72"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="54"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="91"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="91"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="91"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="91"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="119"/>
+      <c r="AA46" s="118"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="119"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="77"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="32"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="32"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="72"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="72"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="54"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="91"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="91"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="86"/>
+      <c r="Q47" s="91"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="86"/>
+      <c r="U47" s="91"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="119"/>
+      <c r="AA47" s="118"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="119"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="77"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="32"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="32"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="72"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="72"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="54"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="91"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="91"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="91"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="91"/>
+      <c r="W48" s="118"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="119"/>
+      <c r="AA48" s="118"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="119"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="76"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="77"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="32"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="32"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="72"/>
-      <c r="AA49" s="71"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="72"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="54"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="91"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="91"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="91"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="86"/>
+      <c r="U49" s="91"/>
+      <c r="W49" s="118"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="119"/>
+      <c r="AA49" s="118"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="119"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="77"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="32"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="32"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="32"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="72"/>
-      <c r="AA50" s="71"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="72"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="54"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="91"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="91"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="86"/>
+      <c r="Q50" s="91"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="91"/>
+      <c r="W50" s="118"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="119"/>
+      <c r="AA50" s="118"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="119"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="76"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="77"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="32"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="32"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="72"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="72"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="54"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="91"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="91"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="91"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="91"/>
+      <c r="W51" s="118"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="119"/>
+      <c r="AA51" s="118"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="119"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="77"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="32"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="32"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="32"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="72"/>
-      <c r="AA52" s="71"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="72"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="54"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="91"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="91"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="86"/>
+      <c r="Q52" s="91"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="91"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="119"/>
+      <c r="AA52" s="118"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="119"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="80"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="19"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="19"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="19"/>
-      <c r="W53" s="81"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="82"/>
-      <c r="AA53" s="81"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="82"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="57"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="91"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="91"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="91"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="91"/>
+      <c r="W53" s="113"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="114"/>
+      <c r="AA53" s="113"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="114"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="98"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="85"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="53"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="53"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="53"/>
-      <c r="S54" s="51"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="53"/>
-      <c r="W54" s="86"/>
-      <c r="X54" s="87"/>
-      <c r="Y54" s="88"/>
-      <c r="AA54" s="86"/>
-      <c r="AB54" s="87"/>
-      <c r="AC54" s="88"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="60"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="96"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="96"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="96"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="96"/>
+      <c r="W54" s="115"/>
+      <c r="X54" s="116"/>
+      <c r="Y54" s="117"/>
+      <c r="AA54" s="115"/>
+      <c r="AB54" s="116"/>
+      <c r="AC54" s="117"/>
     </row>
     <row r="55" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="54"/>
-      <c r="I55" s="55"/>
-      <c r="K55" s="54"/>
-      <c r="M55" s="55"/>
-      <c r="O55" s="54"/>
-      <c r="Q55" s="55"/>
-      <c r="S55" s="54"/>
-      <c r="U55" s="55"/>
-      <c r="W55" s="54"/>
-      <c r="Y55" s="55"/>
-      <c r="AA55" s="54"/>
-      <c r="AC55" s="55"/>
+      <c r="G55" s="39"/>
+      <c r="I55" s="40"/>
+      <c r="K55" s="39"/>
+      <c r="M55" s="40"/>
+      <c r="O55" s="39"/>
+      <c r="Q55" s="40"/>
+      <c r="S55" s="39"/>
+      <c r="U55" s="40"/>
+      <c r="W55" s="39"/>
+      <c r="Y55" s="40"/>
+      <c r="AA55" s="39"/>
+      <c r="AC55" s="40"/>
     </row>
     <row r="56" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="112" t="s">
+      <c r="A56" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="113" t="s">
+      <c r="B56" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="114" t="s">
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="M56" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O56" s="10" t="s">
+      <c r="O56" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="Q56" s="12" t="s">
+      <c r="Q56" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="S56" s="10" t="s">
+      <c r="S56" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="T56" s="11" t="s">
+      <c r="T56" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="U56" s="12" t="s">
+      <c r="U56" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="W56" s="10" t="s">
+      <c r="W56" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="X56" s="11" t="s">
+      <c r="X56" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Y56" s="12" t="s">
+      <c r="Y56" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="AA56" s="10" t="s">
+      <c r="AA56" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AB56" s="11" t="s">
+      <c r="AB56" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="AC56" s="12" t="s">
+      <c r="AC56" s="112" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="111" t="s">
+      <c r="A57" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="122" t="s">
+      <c r="B57" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="123"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="56"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="32"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="32"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="32"/>
-      <c r="AA57" s="30"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="32"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="41"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="91"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="86"/>
+      <c r="M57" s="91"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="86"/>
+      <c r="Q57" s="91"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="86"/>
+      <c r="U57" s="91"/>
+      <c r="W57" s="118"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="119"/>
+      <c r="AA57" s="118"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="119"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="57" t="s">
+      <c r="A58" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="117"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="58"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="32"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="32"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="32"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="32"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="31"/>
-      <c r="Y58" s="32"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="31"/>
-      <c r="AC58" s="32"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="43"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="91"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="91"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="86"/>
+      <c r="Q58" s="91"/>
+      <c r="S58" s="90"/>
+      <c r="T58" s="86"/>
+      <c r="U58" s="91"/>
+      <c r="W58" s="118"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="119"/>
+      <c r="AA58" s="118"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="119"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="116" t="s">
+      <c r="B59" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="58"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="32"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="32"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="32"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="32"/>
-      <c r="AA59" s="30"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="32"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="43"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="91"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="86"/>
+      <c r="M59" s="91"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="86"/>
+      <c r="Q59" s="91"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="86"/>
+      <c r="U59" s="91"/>
+      <c r="W59" s="118"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="119"/>
+      <c r="AA59" s="118"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="119"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="A60" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="116" t="s">
+      <c r="B60" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="117"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="58"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="32"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="32"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="32"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="32"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="32"/>
-      <c r="AA60" s="30"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="32"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="43"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="91"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="91"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="86"/>
+      <c r="Q60" s="91"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="86"/>
+      <c r="U60" s="91"/>
+      <c r="W60" s="118"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="119"/>
+      <c r="AA60" s="118"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="119"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="58"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="32"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="32"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="32"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="32"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="32"/>
-      <c r="AA61" s="30"/>
-      <c r="AB61" s="31"/>
-      <c r="AC61" s="32"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="43"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="91"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="91"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="86"/>
+      <c r="Q61" s="91"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="86"/>
+      <c r="U61" s="91"/>
+      <c r="W61" s="118"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="119"/>
+      <c r="AA61" s="118"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="119"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="58"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="32"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="32"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="32"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="32"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="31"/>
-      <c r="Y62" s="32"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="31"/>
-      <c r="AC62" s="32"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="43"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="91"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="91"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="86"/>
+      <c r="Q62" s="91"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="86"/>
+      <c r="U62" s="91"/>
+      <c r="W62" s="118"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="119"/>
+      <c r="AA62" s="118"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="119"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="58"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="32"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="32"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="32"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="32"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="32"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="32"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="43"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="91"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="86"/>
+      <c r="M63" s="91"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="86"/>
+      <c r="Q63" s="91"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="86"/>
+      <c r="U63" s="91"/>
+      <c r="W63" s="118"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="119"/>
+      <c r="AA63" s="118"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="119"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="58"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="32"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="32"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="32"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="32"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="31"/>
-      <c r="Y64" s="32"/>
-      <c r="AA64" s="30"/>
-      <c r="AB64" s="31"/>
-      <c r="AC64" s="32"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="43"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="91"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="86"/>
+      <c r="M64" s="91"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="86"/>
+      <c r="Q64" s="91"/>
+      <c r="S64" s="90"/>
+      <c r="T64" s="86"/>
+      <c r="U64" s="91"/>
+      <c r="W64" s="118"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="119"/>
+      <c r="AA64" s="118"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="119"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="58"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="32"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="32"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="32"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="32"/>
-      <c r="AA65" s="30"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="32"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="43"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="91"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="86"/>
+      <c r="M65" s="91"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="86"/>
+      <c r="Q65" s="91"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="86"/>
+      <c r="U65" s="91"/>
+      <c r="W65" s="118"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="119"/>
+      <c r="AA65" s="118"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="119"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="58"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="32"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="32"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="32"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="32"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="32"/>
-      <c r="AA66" s="30"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="32"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="43"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="91"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="86"/>
+      <c r="M66" s="91"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="86"/>
+      <c r="Q66" s="91"/>
+      <c r="S66" s="90"/>
+      <c r="T66" s="86"/>
+      <c r="U66" s="91"/>
+      <c r="W66" s="118"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="119"/>
+      <c r="AA66" s="118"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="119"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="59"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="120"/>
-      <c r="D67" s="121"/>
-      <c r="E67" s="60"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="53"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="53"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="53"/>
-      <c r="W67" s="51"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="53"/>
-      <c r="AA67" s="51"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="53"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="45"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="96"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="95"/>
+      <c r="M67" s="96"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="95"/>
+      <c r="Q67" s="96"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="95"/>
+      <c r="U67" s="96"/>
+      <c r="W67" s="115"/>
+      <c r="X67" s="116"/>
+      <c r="Y67" s="117"/>
+      <c r="AA67" s="115"/>
+      <c r="AB67" s="116"/>
+      <c r="AC67" s="117"/>
     </row>
     <row r="68" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5924,7 +5763,7 @@
     <protectedRange sqref="H7:I27 T7:U27" name="Contact Fields_1"/>
     <protectedRange sqref="L7:M27" name="Contact Fields_2"/>
     <protectedRange sqref="V29:Y30 V43:Y43 AA29:AC30 AA43:AC43" name="customEntities_1"/>
-    <protectedRange sqref="N31:N42 J31:J42 R31:R42 A31:F42 A44:U54" name="Questionnaire_2"/>
+    <protectedRange sqref="N31:N42 J31:J42 R31:R42 A31:F42 A44:U54 G41:I42" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="23">
     <mergeCell ref="AA29:AC29"/>
@@ -5952,14 +5791,30 @@
     <mergeCell ref="B62:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
-    <cfRule type="expression" dxfId="91" priority="95">
+    <cfRule type="expression" dxfId="95" priority="99">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
+    <cfRule type="expression" dxfId="94" priority="100">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA57:AC67">
+    <cfRule type="expression" dxfId="93" priority="97">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="98">
+      <formula>$D57="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W57:Y67">
+    <cfRule type="expression" dxfId="91" priority="95">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="96">
+      <formula>$D57="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O57:Q67">
     <cfRule type="expression" dxfId="89" priority="93">
       <formula>$C57="x"</formula>
     </cfRule>
@@ -5967,7 +5822,7 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W57:Y67">
+  <conditionalFormatting sqref="K57:M67">
     <cfRule type="expression" dxfId="87" priority="91">
       <formula>$C57="x"</formula>
     </cfRule>
@@ -5975,7 +5830,7 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O57:Q67">
+  <conditionalFormatting sqref="G57:I67">
     <cfRule type="expression" dxfId="85" priority="89">
       <formula>$C57="x"</formula>
     </cfRule>
@@ -5983,39 +5838,39 @@
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:M67">
+  <conditionalFormatting sqref="A8:A26">
     <cfRule type="expression" dxfId="83" priority="87">
-      <formula>$C57="x"</formula>
+      <formula>$C8="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="82" priority="88">
-      <formula>$D57="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G57:I67">
-    <cfRule type="expression" dxfId="81" priority="85">
-      <formula>$C57="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="86">
-      <formula>$D57="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A26">
-    <cfRule type="expression" dxfId="79" priority="83">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:I27">
-    <cfRule type="expression" dxfId="77" priority="77">
+    <cfRule type="expression" dxfId="81" priority="81">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
+    <cfRule type="expression" dxfId="80" priority="82">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28:V28 S8:S12 V8:V27 S14:S27">
+    <cfRule type="expression" dxfId="79" priority="79">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="80">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S57:U67">
+    <cfRule type="expression" dxfId="77" priority="77">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="78">
+      <formula>$D57="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:U27">
     <cfRule type="expression" dxfId="75" priority="75">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -6023,15 +5878,15 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S57:U67">
+  <conditionalFormatting sqref="S13">
     <cfRule type="expression" dxfId="73" priority="73">
-      <formula>$C57="x"</formula>
+      <formula>$C13="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="72" priority="74">
-      <formula>$D57="x"</formula>
+      <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:U27">
+  <conditionalFormatting sqref="L8:M27">
     <cfRule type="expression" dxfId="71" priority="71">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -6039,295 +5894,292 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="69" priority="69">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="70">
-      <formula>$D13="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M27">
-    <cfRule type="expression" dxfId="67" priority="67">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="68">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="V42:Y42">
-    <cfRule type="expression" dxfId="65" priority="25">
+    <cfRule type="expression" dxfId="69" priority="29">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="26">
+    <cfRule type="expression" dxfId="68" priority="30">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:Z36 B36 A36:A38 C36:F38 A30:R30 A29:F29 J29 N29 R29 A31:F35 A39:F42 N31:N42 J31:J42 R31:R42 A43:R54 V29:Z30 V43:Y43 AD29:AG54">
-    <cfRule type="expression" dxfId="63" priority="59">
+    <cfRule type="expression" dxfId="67" priority="63">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="60">
+    <cfRule type="expression" dxfId="66" priority="64">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B38">
-    <cfRule type="expression" dxfId="61" priority="57">
+    <cfRule type="expression" dxfId="65" priority="61">
       <formula>$C36="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58">
+    <cfRule type="expression" dxfId="64" priority="62">
       <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O32">
-    <cfRule type="expression" dxfId="59" priority="55">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q32">
-    <cfRule type="expression" dxfId="57" priority="53">
+    <cfRule type="expression" dxfId="61" priority="57">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="60" priority="58">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33:O42">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="58" priority="56">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:Q42">
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="56" priority="54">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K32">
-    <cfRule type="expression" dxfId="51" priority="47">
+    <cfRule type="expression" dxfId="55" priority="51">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
+    <cfRule type="expression" dxfId="54" priority="52">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M32">
-    <cfRule type="expression" dxfId="49" priority="45">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
+    <cfRule type="expression" dxfId="52" priority="50">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K42">
-    <cfRule type="expression" dxfId="47" priority="43">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
+    <cfRule type="expression" dxfId="50" priority="48">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33:M42">
-    <cfRule type="expression" dxfId="45" priority="41">
+    <cfRule type="expression" dxfId="49" priority="45">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42">
+    <cfRule type="expression" dxfId="48" priority="46">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G32">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="46" priority="44">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I32">
+    <cfRule type="expression" dxfId="45" priority="41">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="42">
+      <formula>$D31="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G40">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="40">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I40">
     <cfRule type="expression" dxfId="41" priority="37">
-      <formula>$C31="x"</formula>
+      <formula>$C33="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="38">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G42">
-    <cfRule type="expression" dxfId="39" priority="35">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>$D33="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I42">
-    <cfRule type="expression" dxfId="37" priority="33">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31:Y41">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V44:Y53">
-    <cfRule type="expression" dxfId="33" priority="29">
+    <cfRule type="expression" dxfId="37" priority="33">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="30">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V54:Y54">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="35" priority="31">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="28">
+    <cfRule type="expression" dxfId="34" priority="32">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z51">
-    <cfRule type="expression" dxfId="29" priority="61">
+    <cfRule type="expression" dxfId="33" priority="65">
       <formula>$C56="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="62">
+    <cfRule type="expression" dxfId="32" priority="66">
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37 Z42:Z49">
-    <cfRule type="expression" dxfId="27" priority="63">
+    <cfRule type="expression" dxfId="31" priority="67">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="64">
+    <cfRule type="expression" dxfId="30" priority="68">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50 Z38:Z41">
-    <cfRule type="expression" dxfId="25" priority="65">
+    <cfRule type="expression" dxfId="29" priority="69">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="66">
+    <cfRule type="expression" dxfId="28" priority="70">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:R55 W55:AK55">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:V55">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:U30 S43:U54">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31:S32">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:U32">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33:S42">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33:U42">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA42:AC42">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA29:AC30 AA43:AC43">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA31:AC41">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA44:AC53">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA54:AC54">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <conditionalFormatting sqref="G42:I42">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C42="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D42="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:I41">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C41="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27 C31:D42 C44:D54" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC57:AC67 Y7:Y27 AC7:AC27 Y57:Y67 Q57:Q67 Q7:Q27 U7:U27 M57:M67 I57:I67 I7:I27 U57:U67 M7:M27 Y31:Y42 Q31:Q42 M31:M42 I31:I42 Y44:Y54 U31:U42 AC31:AC42 AC44:AC54" xr:uid="{5EC9FB2D-F3B3-4F68-88B9-BC7DBE621DBB}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I44:I54 M44:M54 Q44:Q54 U44:U54" xr:uid="{D00FA199-3315-49A4-BB08-FE9FD3B30D25}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 AC31:AC42 Y31:Y42 U31:U42 Q31:Q42 M31:M42 I57:I67 I44:I54 M44:M54 Q44:Q54 U44:U54 Y44:Y54 AC44:AC54 AC57:AC67 Y57:Y67 U57:U67 Q57:Q67 M57:M67 I31:I42" xr:uid="{066716C3-506D-4C0E-A23D-67D5CB3F4E55}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EC5CBA-E5DD-4F4E-8912-98315A6F897E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB47A61-7D1E-48B6-B963-00525F65BF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     </r>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>CRM System: SuiteCRM</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1723,6 +1723,78 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1750,78 +1822,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3498,7 +3498,7 @@
   <dimension ref="A1:AC68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3553,102 +3553,104 @@
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="85" t="s">
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="O4" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="O4" s="85" t="s">
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="S4" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="S4" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="109"/>
-      <c r="AA4" s="107" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="109"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="121"/>
+      <c r="AA4" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="121"/>
     </row>
     <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="75" t="s">
+        <v>98</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="88" t="s">
+      <c r="L6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="89" t="s">
+      <c r="M6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="88" t="s">
+      <c r="P6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="89" t="s">
+      <c r="Q6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="87" t="s">
+      <c r="S6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="88" t="s">
+      <c r="T6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="110" t="s">
+      <c r="W6" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="111" t="s">
+      <c r="X6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="112" t="s">
+      <c r="Y6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="110" t="s">
+      <c r="AA6" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="111" t="s">
+      <c r="AB6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="112" t="s">
+      <c r="AC6" s="93" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3658,71 +3660,69 @@
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="91"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="91"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="91"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="91"/>
-      <c r="W7" s="113"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="81"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="81"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="81"/>
+      <c r="W7" s="94"/>
       <c r="X7" s="14"/>
-      <c r="Y7" s="114"/>
-      <c r="AA7" s="113"/>
+      <c r="Y7" s="95"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="114"/>
+      <c r="AC7" s="95"/>
     </row>
     <row r="8" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
-      <c r="G8" s="90" t="s">
+      <c r="G8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="90" t="s">
+      <c r="H8" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="90"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="91"/>
-      <c r="S8" s="90" t="s">
+      <c r="L8" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="80"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="81"/>
+      <c r="S8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" s="113"/>
+      <c r="T8" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="94"/>
       <c r="X8" s="14"/>
-      <c r="Y8" s="114"/>
-      <c r="AA8" s="113"/>
+      <c r="Y8" s="95"/>
+      <c r="AA8" s="94"/>
       <c r="AB8" s="14"/>
-      <c r="AC8" s="114"/>
+      <c r="AC8" s="95"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -3732,42 +3732,42 @@
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="90" t="s">
+      <c r="H9" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="91"/>
-      <c r="S9" s="90" t="s">
+      <c r="L9" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="80"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="81"/>
+      <c r="S9" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W9" s="113"/>
+      <c r="T9" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="94"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="114"/>
-      <c r="AA9" s="118"/>
+      <c r="Y9" s="95"/>
+      <c r="AA9" s="99"/>
       <c r="AB9" s="25"/>
-      <c r="AC9" s="119"/>
+      <c r="AC9" s="100"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -3777,42 +3777,42 @@
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="90" t="s">
+      <c r="H10" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="91"/>
-      <c r="S10" s="90" t="s">
+      <c r="L10" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="80"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="81"/>
+      <c r="S10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="U10" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W10" s="113"/>
+      <c r="T10" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="94"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="114"/>
-      <c r="AA10" s="118"/>
+      <c r="Y10" s="95"/>
+      <c r="AA10" s="99"/>
       <c r="AB10" s="25"/>
-      <c r="AC10" s="119"/>
+      <c r="AC10" s="100"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -3822,42 +3822,42 @@
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
       <c r="E11" s="24"/>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="90" t="s">
+      <c r="H11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="91"/>
-      <c r="S11" s="90" t="s">
+      <c r="L11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="80"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="81"/>
+      <c r="S11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="U11" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W11" s="113"/>
+      <c r="T11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="94"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="114"/>
-      <c r="AA11" s="118"/>
+      <c r="Y11" s="95"/>
+      <c r="AA11" s="99"/>
       <c r="AB11" s="25"/>
-      <c r="AC11" s="119"/>
+      <c r="AC11" s="100"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -3867,42 +3867,42 @@
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
-      <c r="G12" s="90" t="s">
+      <c r="G12" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="91" t="s">
+      <c r="H12" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="80"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="81"/>
+      <c r="O12" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="91"/>
-      <c r="O12" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="90" t="s">
+      <c r="Q12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="U12" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W12" s="113"/>
+      <c r="T12" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="94"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="114"/>
-      <c r="AA12" s="118"/>
+      <c r="Y12" s="95"/>
+      <c r="AA12" s="99"/>
       <c r="AB12" s="25"/>
-      <c r="AC12" s="119"/>
+      <c r="AC12" s="100"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
@@ -3912,48 +3912,48 @@
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="90" t="s">
+      <c r="H13" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="90" t="s">
+      <c r="L13" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S13" s="90" t="s">
+      <c r="P13" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W13" s="113"/>
+      <c r="T13" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="94"/>
       <c r="X13" s="14"/>
-      <c r="Y13" s="114"/>
-      <c r="AA13" s="118"/>
+      <c r="Y13" s="95"/>
+      <c r="AA13" s="99"/>
       <c r="AB13" s="25"/>
-      <c r="AC13" s="119"/>
+      <c r="AC13" s="100"/>
     </row>
     <row r="14" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
@@ -3963,48 +3963,48 @@
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
       <c r="E14" s="19"/>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="92" t="s">
+      <c r="H14" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="M14" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="92" t="s">
+      <c r="L14" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="92" t="s">
+      <c r="P14" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="U14" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="W14" s="113"/>
+      <c r="T14" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="94"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="114"/>
-      <c r="AA14" s="113"/>
+      <c r="Y14" s="95"/>
+      <c r="AA14" s="94"/>
       <c r="AB14" s="14"/>
-      <c r="AC14" s="114"/>
+      <c r="AC14" s="95"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -4014,48 +4014,48 @@
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="90" t="s">
+      <c r="H15" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="90" t="s">
+      <c r="L15" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q15" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="90" t="s">
+      <c r="P15" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="U15" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W15" s="113"/>
+      <c r="T15" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="94"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="114"/>
-      <c r="AA15" s="118"/>
+      <c r="Y15" s="95"/>
+      <c r="AA15" s="99"/>
       <c r="AB15" s="25"/>
-      <c r="AC15" s="119"/>
+      <c r="AC15" s="100"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -4065,48 +4065,48 @@
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
-      <c r="G16" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="M16" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="U16" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W16" s="113"/>
+      <c r="G16" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W16" s="94"/>
       <c r="X16" s="14"/>
-      <c r="Y16" s="114"/>
-      <c r="AA16" s="118"/>
+      <c r="Y16" s="95"/>
+      <c r="AA16" s="99"/>
       <c r="AB16" s="25"/>
-      <c r="AC16" s="119"/>
+      <c r="AC16" s="100"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -4116,48 +4116,48 @@
       <c r="C17" s="22"/>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="90" t="s">
+      <c r="H17" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="M17" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="90" t="s">
+      <c r="L17" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q17" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" s="90" t="s">
+      <c r="P17" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="U17" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W17" s="113"/>
+      <c r="T17" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="94"/>
       <c r="X17" s="14"/>
-      <c r="Y17" s="114"/>
-      <c r="AA17" s="118"/>
+      <c r="Y17" s="95"/>
+      <c r="AA17" s="99"/>
       <c r="AB17" s="25"/>
-      <c r="AC17" s="119"/>
+      <c r="AC17" s="100"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -4167,48 +4167,48 @@
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
-      <c r="G18" s="90" t="s">
+      <c r="G18" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="90" t="s">
+      <c r="K18" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18" s="90" t="s">
+      <c r="O18" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="P18" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="90" t="s">
+      <c r="S18" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="T18" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="U18" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W18" s="113"/>
+      <c r="W18" s="94"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="114"/>
-      <c r="AA18" s="118"/>
+      <c r="Y18" s="95"/>
+      <c r="AA18" s="99"/>
       <c r="AB18" s="25"/>
-      <c r="AC18" s="119"/>
+      <c r="AC18" s="100"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -4218,42 +4218,42 @@
       <c r="C19" s="22"/>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="90" t="s">
+      <c r="H19" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="90"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="91"/>
-      <c r="S19" s="90" t="s">
+      <c r="L19" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="80"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="81"/>
+      <c r="S19" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="U19" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="113"/>
+      <c r="T19" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W19" s="94"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="114"/>
-      <c r="AA19" s="118"/>
+      <c r="Y19" s="95"/>
+      <c r="AA19" s="99"/>
       <c r="AB19" s="25"/>
-      <c r="AC19" s="119"/>
+      <c r="AC19" s="100"/>
     </row>
     <row r="20" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
@@ -4263,48 +4263,48 @@
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="92" t="s">
+      <c r="H20" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="92" t="s">
+      <c r="L20" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q20" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="S20" s="92" t="s">
+      <c r="P20" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="S20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="U20" s="93" t="s">
-        <v>65</v>
-      </c>
-      <c r="W20" s="113"/>
+      <c r="T20" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="94"/>
       <c r="X20" s="14"/>
-      <c r="Y20" s="114"/>
-      <c r="AA20" s="113"/>
+      <c r="Y20" s="95"/>
+      <c r="AA20" s="94"/>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="114"/>
+      <c r="AC20" s="95"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -4314,48 +4314,48 @@
       <c r="C21" s="22"/>
       <c r="D21" s="23"/>
       <c r="E21" s="24"/>
-      <c r="G21" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O21" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="P21" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S21" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="T21" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W21" s="113"/>
+      <c r="G21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M21" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S21" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="T21" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="U21" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="94"/>
       <c r="X21" s="14"/>
-      <c r="Y21" s="114"/>
-      <c r="AA21" s="118"/>
+      <c r="Y21" s="95"/>
+      <c r="AA21" s="99"/>
       <c r="AB21" s="25"/>
-      <c r="AC21" s="119"/>
+      <c r="AC21" s="100"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
@@ -4365,48 +4365,48 @@
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
-      <c r="G22" s="90" t="s">
+      <c r="G22" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="90" t="s">
+      <c r="H22" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="90" t="s">
+      <c r="L22" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S22" s="90" t="s">
+      <c r="P22" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="U22" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="W22" s="113"/>
+      <c r="T22" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="W22" s="94"/>
       <c r="X22" s="14"/>
-      <c r="Y22" s="114"/>
-      <c r="AA22" s="113"/>
+      <c r="Y22" s="95"/>
+      <c r="AA22" s="94"/>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="114"/>
+      <c r="AC22" s="95"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -4416,30 +4416,30 @@
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
       <c r="E23" s="24"/>
-      <c r="G23" s="90" t="s">
+      <c r="G23" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="I23" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="90"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="91"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="91"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="91"/>
-      <c r="W23" s="113"/>
+      <c r="H23" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="80"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="81"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="81"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="81"/>
+      <c r="W23" s="94"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="114"/>
-      <c r="AA23" s="113"/>
+      <c r="Y23" s="95"/>
+      <c r="AA23" s="94"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="114"/>
+      <c r="AC23" s="95"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
@@ -4449,102 +4449,102 @@
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="33"/>
-      <c r="G24" s="90" t="s">
+      <c r="G24" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="90" t="s">
+      <c r="H24" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="90"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="91"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="91"/>
-      <c r="W24" s="113"/>
+      <c r="L24" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="80"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="81"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="81"/>
+      <c r="W24" s="94"/>
       <c r="X24" s="14"/>
-      <c r="Y24" s="114"/>
-      <c r="AA24" s="113"/>
+      <c r="Y24" s="95"/>
+      <c r="AA24" s="94"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="114"/>
+      <c r="AC24" s="95"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="91"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="91"/>
-      <c r="O25" s="90" t="s">
+      <c r="G25" s="80"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="81"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="81"/>
+      <c r="O25" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="P25" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S25" s="90"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="91"/>
-      <c r="W25" s="113"/>
+      <c r="Q25" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S25" s="80"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="81"/>
+      <c r="W25" s="94"/>
       <c r="X25" s="14"/>
-      <c r="Y25" s="114"/>
-      <c r="AA25" s="113"/>
+      <c r="Y25" s="95"/>
+      <c r="AA25" s="94"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="114"/>
+      <c r="AC25" s="95"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="91"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="91"/>
-      <c r="O26" s="90" t="s">
+      <c r="G26" s="80"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="81"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="81"/>
+      <c r="O26" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="S26" s="90"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="91"/>
-      <c r="W26" s="113"/>
+      <c r="Q26" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="S26" s="80"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="81"/>
+      <c r="W26" s="94"/>
       <c r="X26" s="14"/>
-      <c r="Y26" s="114"/>
-      <c r="AA26" s="113"/>
+      <c r="Y26" s="95"/>
+      <c r="AA26" s="94"/>
       <c r="AB26" s="14"/>
-      <c r="AC26" s="114"/>
+      <c r="AC26" s="95"/>
     </row>
     <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
@@ -4552,24 +4552,24 @@
       <c r="C27" s="36"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="96"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="96"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="117"/>
-      <c r="AA27" s="115"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="117"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="86"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="86"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="86"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="86"/>
+      <c r="W27" s="96"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="98"/>
+      <c r="AA27" s="96"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="98"/>
     </row>
     <row r="28" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="39"/>
@@ -4587,414 +4587,414 @@
     </row>
     <row r="29" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="63"/>
-      <c r="G29" s="101" t="s">
+      <c r="G29" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="113"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="102"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="101" t="s">
+      <c r="L29" s="113"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="102"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="100"/>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="117"/>
       <c r="R29" s="48"/>
-      <c r="S29" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" s="99"/>
-      <c r="U29" s="100"/>
+      <c r="S29" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29" s="116"/>
+      <c r="U29" s="117"/>
       <c r="V29" s="48"/>
-      <c r="W29" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="122"/>
-      <c r="AA29" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="122"/>
+      <c r="W29" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="111"/>
+      <c r="AA29" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="111"/>
     </row>
     <row r="30" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="65" t="s">
         <v>83</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>84</v>
       </c>
       <c r="C30" s="66"/>
       <c r="D30" s="66"/>
       <c r="E30" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="105" t="s">
+      <c r="H30" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="106" t="s">
+      <c r="I30" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="104" t="s">
+      <c r="K30" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="105" t="s">
+      <c r="L30" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="106" t="s">
+      <c r="M30" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="O30" s="87" t="s">
+      <c r="O30" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="P30" s="88" t="s">
+      <c r="P30" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="89" t="s">
+      <c r="Q30" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="S30" s="87" t="s">
+      <c r="S30" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="T30" s="88" t="s">
+      <c r="T30" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="U30" s="89" t="s">
+      <c r="U30" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="W30" s="110" t="s">
+      <c r="W30" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="X30" s="111" t="s">
+      <c r="X30" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="Y30" s="112" t="s">
+      <c r="Y30" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AA30" s="110" t="s">
+      <c r="AA30" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AB30" s="111" t="s">
+      <c r="AB30" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AC30" s="112" t="s">
+      <c r="AC30" s="93" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>85</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>86</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="50"/>
       <c r="E31" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="90"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="91"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="91"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="91"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="91"/>
-      <c r="W31" s="118"/>
+        <v>86</v>
+      </c>
+      <c r="G31" s="80"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="81"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="81"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="81"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="76"/>
+      <c r="U31" s="81"/>
+      <c r="W31" s="99"/>
       <c r="X31" s="25"/>
-      <c r="Y31" s="119"/>
-      <c r="AA31" s="118"/>
+      <c r="Y31" s="100"/>
+      <c r="AA31" s="99"/>
       <c r="AB31" s="25"/>
-      <c r="AC31" s="119"/>
+      <c r="AC31" s="100"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="51"/>
       <c r="D32" s="50"/>
       <c r="E32" s="49"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="91"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="91"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="91"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="91"/>
-      <c r="W32" s="118"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="81"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="81"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="81"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="81"/>
+      <c r="W32" s="99"/>
       <c r="X32" s="25"/>
-      <c r="Y32" s="119"/>
-      <c r="AA32" s="118"/>
+      <c r="Y32" s="100"/>
+      <c r="AA32" s="99"/>
       <c r="AB32" s="25"/>
-      <c r="AC32" s="119"/>
+      <c r="AC32" s="100"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="52"/>
       <c r="C33" s="53"/>
       <c r="D33" s="52"/>
       <c r="E33" s="54"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="91"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="91"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="91"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="91"/>
-      <c r="W33" s="118"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="81"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="81"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="81"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="81"/>
+      <c r="W33" s="99"/>
       <c r="X33" s="25"/>
-      <c r="Y33" s="119"/>
-      <c r="AA33" s="118"/>
+      <c r="Y33" s="100"/>
+      <c r="AA33" s="99"/>
       <c r="AB33" s="25"/>
-      <c r="AC33" s="119"/>
+      <c r="AC33" s="100"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="53"/>
       <c r="D34" s="52"/>
       <c r="E34" s="54"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="91"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="91"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="91"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="91"/>
-      <c r="W34" s="118"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="81"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="81"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="81"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="81"/>
+      <c r="W34" s="99"/>
       <c r="X34" s="25"/>
-      <c r="Y34" s="119"/>
-      <c r="AA34" s="118"/>
+      <c r="Y34" s="100"/>
+      <c r="AA34" s="99"/>
       <c r="AB34" s="25"/>
-      <c r="AC34" s="119"/>
+      <c r="AC34" s="100"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="53"/>
       <c r="D35" s="52"/>
       <c r="E35" s="54"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="91"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="91"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="91"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="91"/>
-      <c r="W35" s="118"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="81"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="81"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="81"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="76"/>
+      <c r="U35" s="81"/>
+      <c r="W35" s="99"/>
       <c r="X35" s="25"/>
-      <c r="Y35" s="119"/>
-      <c r="AA35" s="118"/>
+      <c r="Y35" s="100"/>
+      <c r="AA35" s="99"/>
       <c r="AB35" s="25"/>
-      <c r="AC35" s="119"/>
+      <c r="AC35" s="100"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="52"/>
       <c r="C36" s="53"/>
       <c r="D36" s="52"/>
       <c r="E36" s="54"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="91"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="91"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="91"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="91"/>
-      <c r="W36" s="118"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="81"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="81"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="81"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="81"/>
+      <c r="W36" s="99"/>
       <c r="X36" s="25"/>
-      <c r="Y36" s="119"/>
-      <c r="AA36" s="118"/>
+      <c r="Y36" s="100"/>
+      <c r="AA36" s="99"/>
       <c r="AB36" s="25"/>
-      <c r="AC36" s="119"/>
+      <c r="AC36" s="100"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="52"/>
       <c r="C37" s="53"/>
       <c r="D37" s="52"/>
       <c r="E37" s="54"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="91"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="91"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="91"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="91"/>
-      <c r="W37" s="118"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="81"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="81"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="81"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="81"/>
+      <c r="W37" s="99"/>
       <c r="X37" s="25"/>
-      <c r="Y37" s="119"/>
-      <c r="AA37" s="118"/>
+      <c r="Y37" s="100"/>
+      <c r="AA37" s="99"/>
       <c r="AB37" s="25"/>
-      <c r="AC37" s="119"/>
+      <c r="AC37" s="100"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="52"/>
       <c r="C38" s="53"/>
       <c r="D38" s="52"/>
       <c r="E38" s="54"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="91"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="91"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="91"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="91"/>
-      <c r="W38" s="118"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="81"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="81"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="81"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="81"/>
+      <c r="W38" s="99"/>
       <c r="X38" s="25"/>
-      <c r="Y38" s="119"/>
-      <c r="AA38" s="118"/>
+      <c r="Y38" s="100"/>
+      <c r="AA38" s="99"/>
       <c r="AB38" s="25"/>
-      <c r="AC38" s="119"/>
+      <c r="AC38" s="100"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="52"/>
       <c r="C39" s="53"/>
       <c r="D39" s="52"/>
       <c r="E39" s="54"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="91"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="91"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="91"/>
-      <c r="S39" s="90"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="91"/>
-      <c r="W39" s="118"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="81"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="81"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="81"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="76"/>
+      <c r="U39" s="81"/>
+      <c r="W39" s="99"/>
       <c r="X39" s="25"/>
-      <c r="Y39" s="119"/>
-      <c r="AA39" s="118"/>
+      <c r="Y39" s="100"/>
+      <c r="AA39" s="99"/>
       <c r="AB39" s="25"/>
-      <c r="AC39" s="119"/>
+      <c r="AC39" s="100"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="52"/>
       <c r="C40" s="53"/>
       <c r="D40" s="52"/>
       <c r="E40" s="54"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="91"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="91"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="91"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="86"/>
-      <c r="U40" s="91"/>
-      <c r="W40" s="118"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="81"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="81"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="81"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="81"/>
+      <c r="W40" s="99"/>
       <c r="X40" s="25"/>
-      <c r="Y40" s="119"/>
-      <c r="AA40" s="118"/>
+      <c r="Y40" s="100"/>
+      <c r="AA40" s="99"/>
       <c r="AB40" s="25"/>
-      <c r="AC40" s="119"/>
+      <c r="AC40" s="100"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="56"/>
       <c r="D41" s="55"/>
       <c r="E41" s="57"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="91"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="91"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="91"/>
-      <c r="S41" s="90"/>
-      <c r="T41" s="86"/>
-      <c r="U41" s="91"/>
-      <c r="W41" s="113"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="81"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="81"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="81"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="81"/>
+      <c r="W41" s="94"/>
       <c r="X41" s="14"/>
-      <c r="Y41" s="114"/>
-      <c r="AA41" s="113"/>
+      <c r="Y41" s="95"/>
+      <c r="AA41" s="94"/>
       <c r="AB41" s="14"/>
-      <c r="AC41" s="114"/>
+      <c r="AC41" s="95"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
@@ -5002,361 +5002,361 @@
       <c r="C42" s="56"/>
       <c r="D42" s="55"/>
       <c r="E42" s="57"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="91"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="96"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="95"/>
-      <c r="Q42" s="96"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="95"/>
-      <c r="U42" s="96"/>
-      <c r="W42" s="115"/>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="117"/>
-      <c r="AA42" s="115"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="117"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="81"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="86"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="86"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="86"/>
+      <c r="W42" s="96"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="98"/>
+      <c r="AA42" s="96"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="98"/>
     </row>
     <row r="43" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="69"/>
       <c r="D43" s="69"/>
       <c r="E43" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="87" t="s">
+      <c r="G43" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="88" t="s">
+      <c r="H43" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="89" t="s">
+      <c r="I43" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="87" t="s">
+      <c r="K43" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="88" t="s">
+      <c r="L43" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="89" t="s">
+      <c r="M43" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="87" t="s">
+      <c r="O43" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="88" t="s">
+      <c r="P43" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Q43" s="89" t="s">
+      <c r="Q43" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="S43" s="87" t="s">
+      <c r="S43" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="T43" s="88" t="s">
+      <c r="T43" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="U43" s="89" t="s">
+      <c r="U43" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="123" t="s">
+      <c r="W43" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="X43" s="124" t="s">
+      <c r="X43" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="Y43" s="125" t="s">
+      <c r="Y43" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AA43" s="123" t="s">
+      <c r="AA43" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="AB43" s="124" t="s">
+      <c r="AB43" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AC43" s="125" t="s">
+      <c r="AC43" s="103" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="50"/>
       <c r="C44" s="51"/>
       <c r="D44" s="50"/>
       <c r="E44" s="49"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="91"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="91"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="91"/>
-      <c r="S44" s="90"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="91"/>
-      <c r="W44" s="129"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="81"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="81"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="81"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="81"/>
+      <c r="W44" s="107"/>
       <c r="X44" s="26"/>
-      <c r="Y44" s="130"/>
-      <c r="AA44" s="126"/>
-      <c r="AB44" s="127"/>
-      <c r="AC44" s="128"/>
+      <c r="Y44" s="108"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="105"/>
+      <c r="AC44" s="106"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="52"/>
       <c r="C45" s="53"/>
       <c r="D45" s="52"/>
       <c r="E45" s="54"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="91"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="91"/>
-      <c r="O45" s="90"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="91"/>
-      <c r="S45" s="90"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="91"/>
-      <c r="W45" s="118"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="81"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="81"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="81"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="76"/>
+      <c r="U45" s="81"/>
+      <c r="W45" s="99"/>
       <c r="X45" s="25"/>
-      <c r="Y45" s="119"/>
-      <c r="AA45" s="118"/>
+      <c r="Y45" s="100"/>
+      <c r="AA45" s="99"/>
       <c r="AB45" s="25"/>
-      <c r="AC45" s="119"/>
+      <c r="AC45" s="100"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="52"/>
       <c r="C46" s="53"/>
       <c r="D46" s="52"/>
       <c r="E46" s="54"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="91"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="91"/>
-      <c r="O46" s="90"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="91"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="91"/>
-      <c r="W46" s="118"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="81"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="81"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="81"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="81"/>
+      <c r="W46" s="99"/>
       <c r="X46" s="25"/>
-      <c r="Y46" s="119"/>
-      <c r="AA46" s="118"/>
+      <c r="Y46" s="100"/>
+      <c r="AA46" s="99"/>
       <c r="AB46" s="25"/>
-      <c r="AC46" s="119"/>
+      <c r="AC46" s="100"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="53"/>
       <c r="D47" s="52"/>
       <c r="E47" s="54"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="91"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="91"/>
-      <c r="O47" s="90"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="91"/>
-      <c r="S47" s="90"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="91"/>
-      <c r="W47" s="118"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="81"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="81"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="81"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="81"/>
+      <c r="W47" s="99"/>
       <c r="X47" s="25"/>
-      <c r="Y47" s="119"/>
-      <c r="AA47" s="118"/>
+      <c r="Y47" s="100"/>
+      <c r="AA47" s="99"/>
       <c r="AB47" s="25"/>
-      <c r="AC47" s="119"/>
+      <c r="AC47" s="100"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="52"/>
       <c r="C48" s="53"/>
       <c r="D48" s="52"/>
       <c r="E48" s="54"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="91"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="91"/>
-      <c r="O48" s="90"/>
-      <c r="P48" s="86"/>
-      <c r="Q48" s="91"/>
-      <c r="S48" s="90"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="91"/>
-      <c r="W48" s="118"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="81"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="81"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="81"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="81"/>
+      <c r="W48" s="99"/>
       <c r="X48" s="25"/>
-      <c r="Y48" s="119"/>
-      <c r="AA48" s="118"/>
+      <c r="Y48" s="100"/>
+      <c r="AA48" s="99"/>
       <c r="AB48" s="25"/>
-      <c r="AC48" s="119"/>
+      <c r="AC48" s="100"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="52"/>
       <c r="C49" s="53"/>
       <c r="D49" s="52"/>
       <c r="E49" s="54"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="91"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="91"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="86"/>
-      <c r="Q49" s="91"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="86"/>
-      <c r="U49" s="91"/>
-      <c r="W49" s="118"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="81"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="81"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="81"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="81"/>
+      <c r="W49" s="99"/>
       <c r="X49" s="25"/>
-      <c r="Y49" s="119"/>
-      <c r="AA49" s="118"/>
+      <c r="Y49" s="100"/>
+      <c r="AA49" s="99"/>
       <c r="AB49" s="25"/>
-      <c r="AC49" s="119"/>
+      <c r="AC49" s="100"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="52"/>
       <c r="C50" s="53"/>
       <c r="D50" s="52"/>
       <c r="E50" s="54"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="91"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="91"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="91"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="86"/>
-      <c r="U50" s="91"/>
-      <c r="W50" s="118"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="81"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="81"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="81"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="81"/>
+      <c r="W50" s="99"/>
       <c r="X50" s="25"/>
-      <c r="Y50" s="119"/>
-      <c r="AA50" s="118"/>
+      <c r="Y50" s="100"/>
+      <c r="AA50" s="99"/>
       <c r="AB50" s="25"/>
-      <c r="AC50" s="119"/>
+      <c r="AC50" s="100"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="52"/>
       <c r="C51" s="53"/>
       <c r="D51" s="52"/>
       <c r="E51" s="54"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="91"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="91"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="91"/>
-      <c r="S51" s="90"/>
-      <c r="T51" s="86"/>
-      <c r="U51" s="91"/>
-      <c r="W51" s="118"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="81"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="81"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="81"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="81"/>
+      <c r="W51" s="99"/>
       <c r="X51" s="25"/>
-      <c r="Y51" s="119"/>
-      <c r="AA51" s="118"/>
+      <c r="Y51" s="100"/>
+      <c r="AA51" s="99"/>
       <c r="AB51" s="25"/>
-      <c r="AC51" s="119"/>
+      <c r="AC51" s="100"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="52"/>
       <c r="C52" s="53"/>
       <c r="D52" s="52"/>
       <c r="E52" s="54"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="91"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="91"/>
-      <c r="O52" s="90"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="91"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="91"/>
-      <c r="W52" s="118"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="81"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="81"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="81"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="81"/>
+      <c r="W52" s="99"/>
       <c r="X52" s="25"/>
-      <c r="Y52" s="119"/>
-      <c r="AA52" s="118"/>
+      <c r="Y52" s="100"/>
+      <c r="AA52" s="99"/>
       <c r="AB52" s="25"/>
-      <c r="AC52" s="119"/>
+      <c r="AC52" s="100"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="56"/>
       <c r="D53" s="55"/>
       <c r="E53" s="57"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="91"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="91"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="91"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="91"/>
-      <c r="W53" s="113"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="81"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="81"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="81"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="81"/>
+      <c r="W53" s="94"/>
       <c r="X53" s="14"/>
-      <c r="Y53" s="114"/>
-      <c r="AA53" s="113"/>
+      <c r="Y53" s="95"/>
+      <c r="AA53" s="94"/>
       <c r="AB53" s="14"/>
-      <c r="AC53" s="114"/>
+      <c r="AC53" s="95"/>
     </row>
     <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="61"/>
@@ -5364,24 +5364,24 @@
       <c r="C54" s="59"/>
       <c r="D54" s="58"/>
       <c r="E54" s="60"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="96"/>
-      <c r="K54" s="94"/>
-      <c r="L54" s="95"/>
-      <c r="M54" s="96"/>
-      <c r="O54" s="94"/>
-      <c r="P54" s="95"/>
-      <c r="Q54" s="96"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="95"/>
-      <c r="U54" s="96"/>
-      <c r="W54" s="115"/>
-      <c r="X54" s="116"/>
-      <c r="Y54" s="117"/>
-      <c r="AA54" s="115"/>
-      <c r="AB54" s="116"/>
-      <c r="AC54" s="117"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="85"/>
+      <c r="M54" s="86"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="86"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="86"/>
+      <c r="W54" s="96"/>
+      <c r="X54" s="97"/>
+      <c r="Y54" s="98"/>
+      <c r="AA54" s="96"/>
+      <c r="AB54" s="97"/>
+      <c r="AC54" s="98"/>
     </row>
     <row r="55" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G55" s="39"/>
@@ -5409,58 +5409,58 @@
       <c r="E56" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="87" t="s">
+      <c r="G56" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="88" t="s">
+      <c r="H56" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="89" t="s">
+      <c r="I56" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="87" t="s">
+      <c r="K56" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="88" t="s">
+      <c r="L56" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="M56" s="89" t="s">
+      <c r="M56" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="O56" s="87" t="s">
+      <c r="O56" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="P56" s="88" t="s">
+      <c r="P56" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="Q56" s="89" t="s">
+      <c r="Q56" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="S56" s="87" t="s">
+      <c r="S56" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="T56" s="88" t="s">
+      <c r="T56" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="U56" s="89" t="s">
+      <c r="U56" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="W56" s="110" t="s">
+      <c r="W56" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="X56" s="111" t="s">
+      <c r="X56" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="Y56" s="112" t="s">
+      <c r="Y56" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AA56" s="110" t="s">
+      <c r="AA56" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AB56" s="111" t="s">
+      <c r="AB56" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AC56" s="112" t="s">
+      <c r="AC56" s="93" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5468,292 +5468,292 @@
       <c r="A57" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="84"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="130"/>
       <c r="E57" s="41"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="91"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="91"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="91"/>
-      <c r="S57" s="90"/>
-      <c r="T57" s="86"/>
-      <c r="U57" s="91"/>
-      <c r="W57" s="118"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="81"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="81"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="81"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="81"/>
+      <c r="W57" s="99"/>
       <c r="X57" s="25"/>
-      <c r="Y57" s="119"/>
-      <c r="AA57" s="118"/>
+      <c r="Y57" s="100"/>
+      <c r="AA57" s="99"/>
       <c r="AB57" s="25"/>
-      <c r="AC57" s="119"/>
+      <c r="AC57" s="100"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="124"/>
       <c r="E58" s="43"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="91"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="91"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="86"/>
-      <c r="Q58" s="91"/>
-      <c r="S58" s="90"/>
-      <c r="T58" s="86"/>
-      <c r="U58" s="91"/>
-      <c r="W58" s="118"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="81"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="81"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="81"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="76"/>
+      <c r="U58" s="81"/>
+      <c r="W58" s="99"/>
       <c r="X58" s="25"/>
-      <c r="Y58" s="119"/>
-      <c r="AA58" s="118"/>
+      <c r="Y58" s="100"/>
+      <c r="AA58" s="99"/>
       <c r="AB58" s="25"/>
-      <c r="AC58" s="119"/>
+      <c r="AC58" s="100"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="76" t="s">
+      <c r="B59" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="78"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="124"/>
       <c r="E59" s="43"/>
-      <c r="G59" s="90"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="91"/>
-      <c r="K59" s="90"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="91"/>
-      <c r="O59" s="90"/>
-      <c r="P59" s="86"/>
-      <c r="Q59" s="91"/>
-      <c r="S59" s="90"/>
-      <c r="T59" s="86"/>
-      <c r="U59" s="91"/>
-      <c r="W59" s="118"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="81"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="81"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="81"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="76"/>
+      <c r="U59" s="81"/>
+      <c r="W59" s="99"/>
       <c r="X59" s="25"/>
-      <c r="Y59" s="119"/>
-      <c r="AA59" s="118"/>
+      <c r="Y59" s="100"/>
+      <c r="AA59" s="99"/>
       <c r="AB59" s="25"/>
-      <c r="AC59" s="119"/>
+      <c r="AC59" s="100"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="124"/>
       <c r="E60" s="43"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="86"/>
-      <c r="I60" s="91"/>
-      <c r="K60" s="90"/>
-      <c r="L60" s="86"/>
-      <c r="M60" s="91"/>
-      <c r="O60" s="90"/>
-      <c r="P60" s="86"/>
-      <c r="Q60" s="91"/>
-      <c r="S60" s="90"/>
-      <c r="T60" s="86"/>
-      <c r="U60" s="91"/>
-      <c r="W60" s="118"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="81"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="81"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="81"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="81"/>
+      <c r="W60" s="99"/>
       <c r="X60" s="25"/>
-      <c r="Y60" s="119"/>
-      <c r="AA60" s="118"/>
+      <c r="Y60" s="100"/>
+      <c r="AA60" s="99"/>
       <c r="AB60" s="25"/>
-      <c r="AC60" s="119"/>
+      <c r="AC60" s="100"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="78"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="124"/>
       <c r="E61" s="43"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="86"/>
-      <c r="I61" s="91"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="91"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="86"/>
-      <c r="Q61" s="91"/>
-      <c r="S61" s="90"/>
-      <c r="T61" s="86"/>
-      <c r="U61" s="91"/>
-      <c r="W61" s="118"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="81"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="81"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="81"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="76"/>
+      <c r="U61" s="81"/>
+      <c r="W61" s="99"/>
       <c r="X61" s="25"/>
-      <c r="Y61" s="119"/>
-      <c r="AA61" s="118"/>
+      <c r="Y61" s="100"/>
+      <c r="AA61" s="99"/>
       <c r="AB61" s="25"/>
-      <c r="AC61" s="119"/>
+      <c r="AC61" s="100"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="42"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="78"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="124"/>
       <c r="E62" s="43"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="91"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="91"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="86"/>
-      <c r="Q62" s="91"/>
-      <c r="S62" s="90"/>
-      <c r="T62" s="86"/>
-      <c r="U62" s="91"/>
-      <c r="W62" s="118"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="81"/>
+      <c r="K62" s="80"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="81"/>
+      <c r="O62" s="80"/>
+      <c r="P62" s="76"/>
+      <c r="Q62" s="81"/>
+      <c r="S62" s="80"/>
+      <c r="T62" s="76"/>
+      <c r="U62" s="81"/>
+      <c r="W62" s="99"/>
       <c r="X62" s="25"/>
-      <c r="Y62" s="119"/>
-      <c r="AA62" s="118"/>
+      <c r="Y62" s="100"/>
+      <c r="AA62" s="99"/>
       <c r="AB62" s="25"/>
-      <c r="AC62" s="119"/>
+      <c r="AC62" s="100"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="78"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="124"/>
       <c r="E63" s="43"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="91"/>
-      <c r="K63" s="90"/>
-      <c r="L63" s="86"/>
-      <c r="M63" s="91"/>
-      <c r="O63" s="90"/>
-      <c r="P63" s="86"/>
-      <c r="Q63" s="91"/>
-      <c r="S63" s="90"/>
-      <c r="T63" s="86"/>
-      <c r="U63" s="91"/>
-      <c r="W63" s="118"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="81"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="76"/>
+      <c r="M63" s="81"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="76"/>
+      <c r="Q63" s="81"/>
+      <c r="S63" s="80"/>
+      <c r="T63" s="76"/>
+      <c r="U63" s="81"/>
+      <c r="W63" s="99"/>
       <c r="X63" s="25"/>
-      <c r="Y63" s="119"/>
-      <c r="AA63" s="118"/>
+      <c r="Y63" s="100"/>
+      <c r="AA63" s="99"/>
       <c r="AB63" s="25"/>
-      <c r="AC63" s="119"/>
+      <c r="AC63" s="100"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="78"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="124"/>
       <c r="E64" s="43"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="91"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="86"/>
-      <c r="M64" s="91"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="86"/>
-      <c r="Q64" s="91"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="86"/>
-      <c r="U64" s="91"/>
-      <c r="W64" s="118"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="81"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="81"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="76"/>
+      <c r="Q64" s="81"/>
+      <c r="S64" s="80"/>
+      <c r="T64" s="76"/>
+      <c r="U64" s="81"/>
+      <c r="W64" s="99"/>
       <c r="X64" s="25"/>
-      <c r="Y64" s="119"/>
-      <c r="AA64" s="118"/>
+      <c r="Y64" s="100"/>
+      <c r="AA64" s="99"/>
       <c r="AB64" s="25"/>
-      <c r="AC64" s="119"/>
+      <c r="AC64" s="100"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="42"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="78"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
       <c r="E65" s="43"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="91"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="86"/>
-      <c r="M65" s="91"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="86"/>
-      <c r="Q65" s="91"/>
-      <c r="S65" s="90"/>
-      <c r="T65" s="86"/>
-      <c r="U65" s="91"/>
-      <c r="W65" s="118"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="81"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="81"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="76"/>
+      <c r="Q65" s="81"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="76"/>
+      <c r="U65" s="81"/>
+      <c r="W65" s="99"/>
       <c r="X65" s="25"/>
-      <c r="Y65" s="119"/>
-      <c r="AA65" s="118"/>
+      <c r="Y65" s="100"/>
+      <c r="AA65" s="99"/>
       <c r="AB65" s="25"/>
-      <c r="AC65" s="119"/>
+      <c r="AC65" s="100"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="42"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="78"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="124"/>
       <c r="E66" s="43"/>
-      <c r="G66" s="90"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="91"/>
-      <c r="K66" s="90"/>
-      <c r="L66" s="86"/>
-      <c r="M66" s="91"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="86"/>
-      <c r="Q66" s="91"/>
-      <c r="S66" s="90"/>
-      <c r="T66" s="86"/>
-      <c r="U66" s="91"/>
-      <c r="W66" s="118"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="81"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="81"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="76"/>
+      <c r="Q66" s="81"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="76"/>
+      <c r="U66" s="81"/>
+      <c r="W66" s="99"/>
       <c r="X66" s="25"/>
-      <c r="Y66" s="119"/>
-      <c r="AA66" s="118"/>
+      <c r="Y66" s="100"/>
+      <c r="AA66" s="99"/>
       <c r="AB66" s="25"/>
-      <c r="AC66" s="119"/>
+      <c r="AC66" s="100"/>
     </row>
     <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="44"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="81"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="127"/>
       <c r="E67" s="45"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="96"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="96"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="96"/>
-      <c r="S67" s="94"/>
-      <c r="T67" s="95"/>
-      <c r="U67" s="96"/>
-      <c r="W67" s="115"/>
-      <c r="X67" s="116"/>
-      <c r="Y67" s="117"/>
-      <c r="AA67" s="115"/>
-      <c r="AB67" s="116"/>
-      <c r="AC67" s="117"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="86"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="86"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="85"/>
+      <c r="Q67" s="86"/>
+      <c r="S67" s="84"/>
+      <c r="T67" s="85"/>
+      <c r="U67" s="86"/>
+      <c r="W67" s="96"/>
+      <c r="X67" s="97"/>
+      <c r="Y67" s="98"/>
+      <c r="AA67" s="96"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="98"/>
     </row>
     <row r="68" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5766,18 +5766,6 @@
     <protectedRange sqref="N31:N42 J31:J42 R31:R42 A31:F42 A44:U54 G41:I42" name="Questionnaire_2"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
@@ -5789,6 +5777,18 @@
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B62:D62"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AA29:AC29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="W29:Y29"/>
   </mergeCells>
   <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
     <cfRule type="expression" dxfId="95" priority="99">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB47A61-7D1E-48B6-B963-00525F65BF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EDAE7-C370-4FA1-81EB-414D0B4F459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$7:$D$27</definedName>
-    <definedName name="Field_Type">Tabelle1!$AC$57:$AC$67,Tabelle1!$AC$7:$AC$24,Tabelle1!$AC$27,Tabelle1!$Y$7:$Y$27,Tabelle1!$Y$57:$Y$67,Tabelle1!$Q$57:$Q$67,Tabelle1!$Q$7:$Q$27,Tabelle1!$M$7:$M$27,Tabelle1!$M$57:$M$67,Tabelle1!$I$57:$I$67,Tabelle1!$I$7:$I$27</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$7:$D$31</definedName>
+    <definedName name="Field_Type">Tabelle1!$AC$61:$AC$68,Tabelle1!$AC$7:$AC$26,Tabelle1!$AC$31,Tabelle1!$Y$7:$Y$31,Tabelle1!$Y$61:$Y$68,Tabelle1!$Q$61:$Q$68,Tabelle1!$Q$7:$Q$31,Tabelle1!$M$7:$M$31,Tabelle1!$M$61:$M$68,Tabelle1!$I$61:$I$68,Tabelle1!$I$7:$I$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
   <si>
     <t>snapADDY</t>
   </si>
@@ -363,12 +366,36 @@
   <si>
     <t>Notes</t>
   </si>
+  <si>
+    <t>Example Not used field</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>Not_Used_Field</t>
+  </si>
+  <si>
+    <t>Example Mandatory field</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Mandatory_Field</t>
+  </si>
+  <si>
+    <t>(= Fields with automatic value)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,13 +471,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -490,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -551,49 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -663,15 +640,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
@@ -689,39 +657,6 @@
         <color rgb="FF9DA600"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -996,32 +931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -1111,17 +1020,6 @@
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -1527,60 +1425,14 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FFF5B0A9"/>
+        <color rgb="FFFE6C36"/>
       </left>
       <right/>
       <top style="thick">
-        <color rgb="FFF5B0A9"/>
+        <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFF5B0A9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF5B0A9"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF5B0A9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF5B0A9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF5B0A9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1588,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1609,224 +1461,237 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1857,7 +1722,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
+        <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -1901,7 +1766,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -1989,7 +1854,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2143,7 +2008,95 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2297,536 +2250,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2986,13 +2411,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3057,13 +2482,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3128,13 +2553,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>924970</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>177008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129267</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>194446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3495,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3522,7 +2947,7 @@
     <col min="27" max="29" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -3531,17 +2956,17 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="K3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:29" ht="64.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3553,45 +2978,45 @@
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="118" t="s">
+      <c r="K4" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="O4" s="118" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="O4" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="S4" s="118" t="s">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="S4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="119" t="s">
+      <c r="W4" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="121"/>
-      <c r="AA4" s="119" t="s">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="90"/>
+      <c r="AA4" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="121"/>
-    </row>
-    <row r="5" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+    </row>
+    <row r="5" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="8"/>
@@ -3599,2586 +3024,2537 @@
       <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="78" t="s">
+      <c r="L6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="O6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="78" t="s">
+      <c r="P6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="79" t="s">
+      <c r="Q6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="77" t="s">
+      <c r="S6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="78" t="s">
+      <c r="T6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="91" t="s">
+      <c r="W6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="92" t="s">
+      <c r="X6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="93" t="s">
+      <c r="Y6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="91" t="s">
+      <c r="AA6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="92" t="s">
+      <c r="AB6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="93" t="s">
+      <c r="AC6" s="66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="81"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="81"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="81"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="81"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="95"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="95"/>
-    </row>
-    <row r="8" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="G7" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="56"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="57"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="57"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="57"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="68"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="68"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="56"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="57"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="57"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="57"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="68"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="68"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="57"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="57"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="57"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="57"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="68"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="68"/>
+    </row>
+    <row r="10" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="G8" s="80" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10"/>
+      <c r="G10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="J10"/>
+      <c r="K10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="76" t="s">
+      <c r="L10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="81"/>
-      <c r="S8" s="80" t="s">
+      <c r="N10"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="57"/>
+      <c r="R10"/>
+      <c r="S10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="76" t="s">
+      <c r="T10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="U8" s="81" t="s">
+      <c r="U10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="W8" s="94"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="95"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="95"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="V10"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="G9" s="80" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H11" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="80" t="s">
+      <c r="I11" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="76" t="s">
+      <c r="L11" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="80"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="81"/>
-      <c r="S9" s="80" t="s">
+      <c r="M11" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="56"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="57"/>
+      <c r="S11" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="76" t="s">
+      <c r="T11" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W9" s="94"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="95"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="100"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="U11" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="67"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="68"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="68"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="G10" s="80" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H12" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="80" t="s">
+      <c r="I12" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="76" t="s">
+      <c r="L12" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="80"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="81"/>
-      <c r="S10" s="80" t="s">
+      <c r="M12" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="56"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="57"/>
+      <c r="S12" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="76" t="s">
+      <c r="T12" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W10" s="94"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="95"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="100"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="U12" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="67"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="68"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="68"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="G11" s="80" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="80" t="s">
+      <c r="I13" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="76" t="s">
+      <c r="L13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="80"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="81"/>
-      <c r="S11" s="80" t="s">
+      <c r="M13" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="56"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="57"/>
+      <c r="S13" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="76" t="s">
+      <c r="T13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W11" s="94"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="95"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="100"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="U13" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W13" s="67"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="68"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="68"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="G12" s="80" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="81"/>
-      <c r="O12" s="80" t="s">
+      <c r="I14" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="56"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="57"/>
+      <c r="O14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="76" t="s">
+      <c r="P14" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="80" t="s">
+      <c r="Q14" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="76" t="s">
+      <c r="T14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W12" s="94"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="95"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="100"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="U14" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W14" s="67"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="68"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="68"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="G13" s="80" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="80" t="s">
+      <c r="I15" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="76" t="s">
+      <c r="L15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="80" t="s">
+      <c r="M15" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="76" t="s">
+      <c r="P15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="Q13" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" s="80" t="s">
+      <c r="Q15" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="T13" s="76" t="s">
+      <c r="T15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="U13" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W13" s="94"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="95"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="100"/>
-    </row>
-    <row r="14" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="U15" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" s="67"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="68"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="68"/>
+    </row>
+    <row r="16" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="G14" s="82" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16"/>
+      <c r="G16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="82" t="s">
+      <c r="I16" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="76" t="s">
+      <c r="L16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O14" s="82" t="s">
+      <c r="M16" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="76" t="s">
+      <c r="P16" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="82" t="s">
+      <c r="Q16" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="76" t="s">
+      <c r="T16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="U14" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="W14" s="94"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="95"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="95"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="U16" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="G15" s="80" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="80" t="s">
+      <c r="I17" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="76" t="s">
+      <c r="L17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O15" s="80" t="s">
+      <c r="M17" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="76" t="s">
+      <c r="P17" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="Q15" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S15" s="80" t="s">
+      <c r="Q17" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="76" t="s">
+      <c r="T17" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="U15" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W15" s="94"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="95"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="100"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="U17" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="67"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="68"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="68"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="G16" s="80" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="76" t="s">
+      <c r="H18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="80" t="s">
+      <c r="I18" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="L16" s="76" t="s">
+      <c r="L18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="80" t="s">
+      <c r="M18" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="76" t="s">
+      <c r="P18" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S16" s="80" t="s">
+      <c r="Q18" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="T16" s="76" t="s">
+      <c r="T18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W16" s="94"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="95"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="100"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="U18" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" s="67"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="68"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="68"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="G17" s="80" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="80" t="s">
+      <c r="I19" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="76" t="s">
+      <c r="L19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" s="80" t="s">
+      <c r="M19" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="76" t="s">
+      <c r="P19" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="Q17" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S17" s="80" t="s">
+      <c r="Q19" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="76" t="s">
+      <c r="T19" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="U17" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W17" s="94"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="95"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="100"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="U19" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W19" s="67"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="68"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="68"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="G18" s="80" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="G20" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H20" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="80" t="s">
+      <c r="I20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="76" t="s">
+      <c r="L20" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" s="80" t="s">
+      <c r="M20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="76" t="s">
+      <c r="P20" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S18" s="80" t="s">
+      <c r="Q20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S20" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="T18" s="76" t="s">
+      <c r="T20" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="94"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="95"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="100"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="U20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="67"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="68"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="68"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="G19" s="80" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="G21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H21" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="80" t="s">
+      <c r="I21" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="76" t="s">
+      <c r="L21" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="81"/>
-      <c r="S19" s="80" t="s">
+      <c r="M21" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="56"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="57"/>
+      <c r="S21" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="76" t="s">
+      <c r="T21" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="94"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="95"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="100"/>
-    </row>
-    <row r="20" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="U21" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="67"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="68"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="68"/>
+    </row>
+    <row r="22" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="82" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22"/>
+      <c r="G22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="82" t="s">
+      <c r="I22" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="76" t="s">
+      <c r="L22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O20" s="82" t="s">
+      <c r="M22" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="87" t="s">
+      <c r="P22" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="S20" s="82" t="s">
+      <c r="Q22" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22"/>
+      <c r="S22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="76" t="s">
+      <c r="T22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="W20" s="94"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="95"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="95"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="U22" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="G21" s="80" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="G23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H23" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="80" t="s">
+      <c r="I23" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="L21" s="76" t="s">
+      <c r="L23" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="M21" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O21" s="80" t="s">
+      <c r="M23" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="76" t="s">
+      <c r="P23" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" s="80" t="s">
+      <c r="Q23" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S23" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="T21" s="76" t="s">
+      <c r="T23" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="U21" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W21" s="94"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="95"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="100"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="U23" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W23" s="67"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="68"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="68"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="G22" s="80" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="G24" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H24" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="80" t="s">
+      <c r="I24" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="76" t="s">
+      <c r="L24" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O22" s="80" t="s">
+      <c r="M24" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="76" t="s">
+      <c r="P24" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" s="80" t="s">
+      <c r="Q24" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S24" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="76" t="s">
+      <c r="T24" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="W22" s="94"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="95"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="95"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="U24" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="67"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="68"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="68"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="G23" s="80" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="G25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="76" t="s">
+      <c r="H25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="80"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="81"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="81"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="81"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="95"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="95"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="I25" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="56"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="57"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="57"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="57"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="68"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="68"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="G24" s="80" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="G26" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="76" t="s">
+      <c r="H26" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="80" t="s">
+      <c r="I26" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="76" t="s">
+      <c r="L26" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="O24" s="80"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="81"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="81"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="95"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="95"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="M26" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="56"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="57"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="57"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="68"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="68"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="81"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="81"/>
-      <c r="O25" s="80" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="57"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="57"/>
+      <c r="O27" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="P25" s="76" t="s">
+      <c r="P27" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S25" s="80"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="81"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="95"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="95"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="Q27" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S27" s="56"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="57"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="68"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="68"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="81"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="81"/>
-      <c r="O26" s="80" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="57"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="57"/>
+      <c r="O28" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="76" t="s">
+      <c r="P28" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q26" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" s="80"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="81"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="95"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="95"/>
-    </row>
-    <row r="27" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="86"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="86"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="86"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="86"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="98"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="98"/>
-    </row>
-    <row r="28" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="K28" s="39"/>
-      <c r="M28" s="40"/>
-      <c r="O28" s="39"/>
-      <c r="Q28" s="40"/>
-      <c r="S28" s="39"/>
-      <c r="U28" s="40"/>
-      <c r="W28" s="39"/>
-      <c r="Y28" s="40"/>
-      <c r="AA28" s="39"/>
-      <c r="AC28" s="40"/>
-    </row>
-    <row r="29" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="Q28" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="56"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="57"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="68"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="68"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="57"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="57"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="57"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="57"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="68"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="68"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="57"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="57"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="57"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="57"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="68"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="68"/>
+    </row>
+    <row r="31" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="60"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="60"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="71"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="71"/>
+    </row>
+    <row r="32" spans="1:37" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="K32" s="24"/>
+      <c r="M32" s="25"/>
+      <c r="O32" s="24"/>
+      <c r="Q32" s="25"/>
+      <c r="S32" s="24"/>
+      <c r="U32" s="25"/>
+      <c r="W32" s="24"/>
+      <c r="Y32" s="25"/>
+      <c r="AA32" s="24"/>
+      <c r="AC32" s="25"/>
+    </row>
+    <row r="33" spans="1:29" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="G29" s="112" t="s">
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
+      <c r="G33" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="113"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="112" t="s">
+      <c r="H33" s="82"/>
+      <c r="I33" s="83"/>
+      <c r="K33" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="113"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="115" t="s">
+      <c r="L33" s="82"/>
+      <c r="M33" s="83"/>
+      <c r="O33" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="115" t="s">
+      <c r="P33" s="85"/>
+      <c r="Q33" s="86"/>
+      <c r="S33" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="T29" s="116"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="109" t="s">
+      <c r="T33" s="85"/>
+      <c r="U33" s="86"/>
+      <c r="W33" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="111"/>
-      <c r="AA29" s="109" t="s">
+      <c r="X33" s="79"/>
+      <c r="Y33" s="80"/>
+      <c r="AA33" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="111"/>
-    </row>
-    <row r="30" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="80"/>
+    </row>
+    <row r="34" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="65" t="s">
+      <c r="B34" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67" t="s">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="88" t="s">
+      <c r="G34" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="89" t="s">
+      <c r="H34" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="90" t="s">
+      <c r="I34" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="88" t="s">
+      <c r="K34" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="89" t="s">
+      <c r="L34" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="90" t="s">
+      <c r="M34" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="O30" s="77" t="s">
+      <c r="O34" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="P30" s="78" t="s">
+      <c r="P34" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="79" t="s">
+      <c r="Q34" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S30" s="77" t="s">
+      <c r="S34" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T30" s="78" t="s">
+      <c r="T34" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="U30" s="79" t="s">
+      <c r="U34" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W30" s="91" t="s">
+      <c r="W34" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="X30" s="92" t="s">
+      <c r="X34" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Y30" s="93" t="s">
+      <c r="Y34" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AA30" s="91" t="s">
+      <c r="AA34" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AB30" s="92" t="s">
+      <c r="AB34" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC30" s="93" t="s">
+      <c r="AC34" s="66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+    <row r="35" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B35" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="49" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="80"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="81"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="81"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="81"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="81"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="100"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="100"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="G35" s="56"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="57"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="57"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="57"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="57"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="68"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="68"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="81"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="81"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="81"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="81"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="100"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="100"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="57"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="57"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="57"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="57"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="68"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="68"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="54"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="81"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="81"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="81"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="81"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="100"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="100"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="57"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="57"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="57"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="57"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="68"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="68"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="54"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="81"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="81"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="81"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="81"/>
-      <c r="W34" s="99"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="100"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="100"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="57"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="57"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="57"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="57"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="68"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="68"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="54"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="81"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="81"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="81"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="81"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="100"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="100"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="57"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="57"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="57"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="57"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="68"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="68"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="54"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="81"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="81"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="81"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="81"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="100"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="100"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="57"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="57"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="57"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="57"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="68"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="68"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="54"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="81"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="81"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="81"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="81"/>
-      <c r="W37" s="99"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="100"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="100"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="57"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="57"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="57"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="57"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="68"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="68"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="54"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="81"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="81"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="81"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="81"/>
-      <c r="W38" s="99"/>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="100"/>
-      <c r="AA38" s="99"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="100"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="57"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="57"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="57"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="57"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="68"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="68"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="54"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="81"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="81"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="81"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="81"/>
-      <c r="W39" s="99"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="100"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="100"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="57"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="57"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="57"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="57"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="68"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="68"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="54"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="81"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="81"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="81"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="81"/>
-      <c r="W40" s="99"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="100"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="100"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="57"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="57"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="57"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="57"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="68"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="68"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="57"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="81"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="81"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="81"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="81"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="95"/>
-      <c r="AA41" s="94"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="95"/>
-    </row>
-    <row r="42" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="57"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="81"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="86"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="86"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="86"/>
-      <c r="W42" s="96"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="98"/>
-      <c r="AA42" s="96"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="98"/>
-    </row>
-    <row r="43" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="68" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="57"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="57"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="57"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="57"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="68"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="68"/>
+    </row>
+    <row r="46" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="34"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="57"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="60"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="60"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="59"/>
+      <c r="U46" s="60"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="71"/>
+      <c r="AA46" s="69"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="71"/>
+    </row>
+    <row r="47" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B47" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70" t="s">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="77" t="s">
+      <c r="G47" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="78" t="s">
+      <c r="H47" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="79" t="s">
+      <c r="I47" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="77" t="s">
+      <c r="K47" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="78" t="s">
+      <c r="L47" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="79" t="s">
+      <c r="M47" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="77" t="s">
+      <c r="O47" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="P43" s="78" t="s">
+      <c r="P47" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q43" s="79" t="s">
+      <c r="Q47" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S43" s="77" t="s">
+      <c r="S47" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T43" s="78" t="s">
+      <c r="T47" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="U43" s="79" t="s">
+      <c r="U47" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W43" s="101" t="s">
+      <c r="W47" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="X43" s="102" t="s">
+      <c r="X47" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="Y43" s="103" t="s">
+      <c r="Y47" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AA43" s="101" t="s">
+      <c r="AA47" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AB43" s="102" t="s">
+      <c r="AB47" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="AC43" s="103" t="s">
+      <c r="AC47" s="76" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+    <row r="48" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="49"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="81"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="81"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="81"/>
-      <c r="S44" s="80"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="81"/>
-      <c r="W44" s="107"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="108"/>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="105"/>
-      <c r="AC44" s="106"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="57"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="57"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="57"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="57"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="68"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="68"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="54"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="81"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="81"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="81"/>
-      <c r="S45" s="80"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="81"/>
-      <c r="W45" s="99"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="100"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="100"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="57"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="57"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="57"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="57"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="68"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="68"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="54"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="81"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="81"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="81"/>
-      <c r="S46" s="80"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="81"/>
-      <c r="W46" s="99"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="100"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="100"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="57"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="57"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="57"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="57"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="68"/>
+      <c r="AA50" s="67"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="68"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="54"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="81"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="81"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="81"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="76"/>
-      <c r="U47" s="81"/>
-      <c r="W47" s="99"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="100"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="100"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="57"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="57"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="57"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="57"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="68"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="68"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="54"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="81"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="81"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="81"/>
-      <c r="S48" s="80"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="81"/>
-      <c r="W48" s="99"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="100"/>
-      <c r="AA48" s="99"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="100"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="57"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="57"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="57"/>
+      <c r="S52" s="56"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="57"/>
+      <c r="W52" s="67"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="68"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="68"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="54"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="81"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="81"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="81"/>
-      <c r="S49" s="80"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="81"/>
-      <c r="W49" s="99"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="100"/>
-      <c r="AA49" s="99"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="100"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="57"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="57"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="57"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="57"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="68"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="68"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="54"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="81"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="81"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="81"/>
-      <c r="S50" s="80"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="81"/>
-      <c r="W50" s="99"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="100"/>
-      <c r="AA50" s="99"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="100"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="57"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="57"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="57"/>
+      <c r="S54" s="56"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="57"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="68"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="68"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="54"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="81"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="81"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="81"/>
-      <c r="S51" s="80"/>
-      <c r="T51" s="76"/>
-      <c r="U51" s="81"/>
-      <c r="W51" s="99"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="100"/>
-      <c r="AA51" s="99"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="100"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="57"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="57"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="57"/>
+      <c r="S55" s="56"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="57"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="68"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="68"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="54"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="81"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="81"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="81"/>
-      <c r="S52" s="80"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="81"/>
-      <c r="W52" s="99"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="100"/>
-      <c r="AA52" s="99"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="100"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="57"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="57"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="57"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="57"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="68"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="68"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="57"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="81"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="81"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="81"/>
-      <c r="S53" s="80"/>
-      <c r="T53" s="76"/>
-      <c r="U53" s="81"/>
-      <c r="W53" s="94"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="95"/>
-      <c r="AA53" s="94"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="95"/>
-    </row>
-    <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="60"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="86"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="86"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="85"/>
-      <c r="Q54" s="86"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="86"/>
-      <c r="W54" s="96"/>
-      <c r="X54" s="97"/>
-      <c r="Y54" s="98"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="97"/>
-      <c r="AC54" s="98"/>
-    </row>
-    <row r="55" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="39"/>
-      <c r="I55" s="40"/>
-      <c r="K55" s="39"/>
-      <c r="M55" s="40"/>
-      <c r="O55" s="39"/>
-      <c r="Q55" s="40"/>
-      <c r="S55" s="39"/>
-      <c r="U55" s="40"/>
-      <c r="W55" s="39"/>
-      <c r="Y55" s="40"/>
-      <c r="AA55" s="39"/>
-      <c r="AC55" s="40"/>
-    </row>
-    <row r="56" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72" t="s">
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="57"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="57"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="57"/>
+      <c r="S57" s="56"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="57"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="68"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="68"/>
+    </row>
+    <row r="58" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="37"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="60"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="60"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="60"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="60"/>
+      <c r="W58" s="69"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="71"/>
+      <c r="AA58" s="69"/>
+      <c r="AB58" s="70"/>
+      <c r="AC58" s="71"/>
+    </row>
+    <row r="59" spans="1:29" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="24"/>
+      <c r="I59" s="25"/>
+      <c r="K59" s="24"/>
+      <c r="M59" s="25"/>
+      <c r="O59" s="24"/>
+      <c r="Q59" s="25"/>
+      <c r="S59" s="24"/>
+      <c r="U59" s="25"/>
+      <c r="W59" s="24"/>
+      <c r="Y59" s="25"/>
+      <c r="AA59" s="24"/>
+      <c r="AC59" s="25"/>
+    </row>
+    <row r="60" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="73" t="s">
+      <c r="B60" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="74" t="s">
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G56" s="77" t="s">
+      <c r="G60" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H56" s="78" t="s">
+      <c r="H60" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="79" t="s">
+      <c r="I60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="77" t="s">
+      <c r="K60" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="78" t="s">
+      <c r="L60" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M56" s="79" t="s">
+      <c r="M60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O56" s="77" t="s">
+      <c r="O60" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="P56" s="78" t="s">
+      <c r="P60" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Q56" s="79" t="s">
+      <c r="Q60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S56" s="77" t="s">
+      <c r="S60" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="T56" s="78" t="s">
+      <c r="T60" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="U56" s="79" t="s">
+      <c r="U60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W56" s="91" t="s">
+      <c r="W60" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="X56" s="92" t="s">
+      <c r="X60" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="Y56" s="93" t="s">
+      <c r="Y60" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AA56" s="91" t="s">
+      <c r="AA60" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="AB56" s="92" t="s">
+      <c r="AB60" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AC56" s="93" t="s">
+      <c r="AC60" s="66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="71" t="s">
+    <row r="61" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="97"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="26"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="57"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="57"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="57"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="57"/>
+      <c r="W61" s="72"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="73"/>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="73"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="128" t="s">
+      <c r="B62" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="129"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="41"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="81"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="81"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="81"/>
-      <c r="S57" s="80"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="81"/>
-      <c r="W57" s="99"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="100"/>
-      <c r="AA57" s="99"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="100"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
+      <c r="C62" s="92"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="28"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="57"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="57"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="57"/>
+      <c r="S62" s="56"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="57"/>
+      <c r="W62" s="72"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="73"/>
+      <c r="AA62" s="72"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="73"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="122" t="s">
+      <c r="B63" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="123"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="43"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="81"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="81"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="81"/>
-      <c r="S58" s="80"/>
-      <c r="T58" s="76"/>
-      <c r="U58" s="81"/>
-      <c r="W58" s="99"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="100"/>
-      <c r="AA58" s="99"/>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="100"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
+      <c r="C63" s="92"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="28"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="57"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="57"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="57"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="57"/>
+      <c r="W63" s="72"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="73"/>
+      <c r="AA63" s="72"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="73"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B59" s="122" t="s">
+      <c r="B64" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="43"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="81"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="81"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="81"/>
-      <c r="S59" s="80"/>
-      <c r="T59" s="76"/>
-      <c r="U59" s="81"/>
-      <c r="W59" s="99"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="100"/>
-      <c r="AA59" s="99"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="100"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="28"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="57"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="57"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="57"/>
+      <c r="S64" s="56"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="57"/>
+      <c r="W64" s="72"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="73"/>
+      <c r="AA64" s="72"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="73"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="122" t="s">
+      <c r="B65" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="123"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="43"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="81"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="81"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="81"/>
-      <c r="S60" s="80"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="81"/>
-      <c r="W60" s="99"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="100"/>
-      <c r="AA60" s="99"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="100"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="43"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="81"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="81"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="81"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="76"/>
-      <c r="U61" s="81"/>
-      <c r="W61" s="99"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="100"/>
-      <c r="AA61" s="99"/>
-      <c r="AB61" s="25"/>
-      <c r="AC61" s="100"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="43"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="81"/>
-      <c r="K62" s="80"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="81"/>
-      <c r="O62" s="80"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="81"/>
-      <c r="S62" s="80"/>
-      <c r="T62" s="76"/>
-      <c r="U62" s="81"/>
-      <c r="W62" s="99"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="100"/>
-      <c r="AA62" s="99"/>
-      <c r="AB62" s="25"/>
-      <c r="AC62" s="100"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="43"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="81"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="81"/>
-      <c r="O63" s="80"/>
-      <c r="P63" s="76"/>
-      <c r="Q63" s="81"/>
-      <c r="S63" s="80"/>
-      <c r="T63" s="76"/>
-      <c r="U63" s="81"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="100"/>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="25"/>
-      <c r="AC63" s="100"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="43"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="81"/>
-      <c r="K64" s="80"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="81"/>
-      <c r="O64" s="80"/>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="81"/>
-      <c r="S64" s="80"/>
-      <c r="T64" s="76"/>
-      <c r="U64" s="81"/>
-      <c r="W64" s="99"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="100"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="25"/>
-      <c r="AC64" s="100"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="43"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="81"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="76"/>
-      <c r="M65" s="81"/>
-      <c r="O65" s="80"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="81"/>
-      <c r="S65" s="80"/>
-      <c r="T65" s="76"/>
-      <c r="U65" s="81"/>
-      <c r="W65" s="99"/>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="100"/>
-      <c r="AA65" s="99"/>
-      <c r="AB65" s="25"/>
-      <c r="AC65" s="100"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="28"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="57"/>
+      <c r="K65" s="56"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="57"/>
+      <c r="O65" s="56"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="57"/>
+      <c r="S65" s="56"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="57"/>
+      <c r="W65" s="72"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="73"/>
+      <c r="AA65" s="72"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="73"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="122"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="43"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="81"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="76"/>
-      <c r="M66" s="81"/>
-      <c r="O66" s="80"/>
-      <c r="P66" s="76"/>
-      <c r="Q66" s="81"/>
-      <c r="S66" s="80"/>
-      <c r="T66" s="76"/>
-      <c r="U66" s="81"/>
-      <c r="W66" s="99"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="100"/>
-      <c r="AA66" s="99"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="100"/>
-    </row>
-    <row r="67" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="44"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="126"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="45"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="86"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="86"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="85"/>
-      <c r="Q67" s="86"/>
-      <c r="S67" s="84"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="86"/>
-      <c r="W67" s="96"/>
-      <c r="X67" s="97"/>
-      <c r="Y67" s="98"/>
-      <c r="AA67" s="96"/>
-      <c r="AB67" s="97"/>
-      <c r="AC67" s="98"/>
-    </row>
-    <row r="68" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="28"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="57"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="57"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="57"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="57"/>
+      <c r="W66" s="72"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="73"/>
+      <c r="AA66" s="72"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="73"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="27"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="28"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="57"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="57"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="57"/>
+      <c r="S67" s="56"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="57"/>
+      <c r="W67" s="72"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="73"/>
+      <c r="AA67" s="72"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="73"/>
+    </row>
+    <row r="68" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="30"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="60"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="60"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="60"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="59"/>
+      <c r="U68" s="60"/>
+      <c r="W68" s="69"/>
+      <c r="X68" s="70"/>
+      <c r="Y68" s="71"/>
+      <c r="AA68" s="69"/>
+      <c r="AB68" s="70"/>
+      <c r="AC68" s="71"/>
+    </row>
+    <row r="69" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="V7:AB27 J7:K27 A7:G27 N7:S27" name="Contact Fields"/>
-    <protectedRange sqref="A57:AC67" name="Questionnaire"/>
-    <protectedRange sqref="H7:I27 T7:U27" name="Contact Fields_1"/>
-    <protectedRange sqref="L7:M27" name="Contact Fields_2"/>
-    <protectedRange sqref="V29:Y30 V43:Y43 AA29:AC30 AA43:AC43" name="customEntities_1"/>
-    <protectedRange sqref="N31:N42 J31:J42 R31:R42 A31:F42 A44:U54 G41:I42" name="Questionnaire_2"/>
+    <protectedRange sqref="W7:Y31 K7:K31 A7:E31 O7:Q31 G7:G31 S7:S31 AA7:AB31" name="Contact Fields"/>
+    <protectedRange sqref="A67:E68 B61:E61 A62:E66 AA61:AC68 W61:Y68 S61:U68 O61:Q68 K61:M68 G61:I68" name="Questionnaire"/>
+    <protectedRange sqref="H7:I31 T7:U31" name="Contact Fields_1"/>
+    <protectedRange sqref="L7:M31" name="Contact Fields_2"/>
+    <protectedRange sqref="W33:Y34 W47:Y47 AA33:AC34 AA47:AC47" name="customEntities_1"/>
+    <protectedRange sqref="A35:E46 A48:E58 G45:I46 G48:I58 K48:M58 O48:Q58 S48:U58" name="Questionnaire_2"/>
+    <protectedRange sqref="A61" name="Questionnaire_1"/>
   </protectedRanges>
-  <mergeCells count="23">
+  <mergeCells count="20">
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B62:D62"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AA29:AC29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
   </mergeCells>
-  <conditionalFormatting sqref="A28:R28 A27:G27 W8:AK28 J8:K27 B8:G26 N8:R27">
-    <cfRule type="expression" dxfId="95" priority="99">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="100">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="A31:E32 K31 B7:E30 W7:Y32 G7:G31 G32:I32 K32:M32 O31:Q32 AA31:AC32">
+    <cfRule type="expression" dxfId="61" priority="121">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="122">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA57:AC67">
-    <cfRule type="expression" dxfId="93" priority="97">
-      <formula>$C57="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="98">
-      <formula>$D57="x"</formula>
+  <conditionalFormatting sqref="AA61:AC68 W61:Y68 O61:Q68 K61:M68 G61:I68 S61:U68">
+    <cfRule type="expression" dxfId="59" priority="119">
+      <formula>$C61="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="120">
+      <formula>$D61="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W57:Y67">
-    <cfRule type="expression" dxfId="91" priority="95">
-      <formula>$C57="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96">
-      <formula>$D57="x"</formula>
+  <conditionalFormatting sqref="A7:A30">
+    <cfRule type="expression" dxfId="57" priority="109">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="110">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O57:Q67">
-    <cfRule type="expression" dxfId="89" priority="93">
-      <formula>$C57="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="94">
-      <formula>$D57="x"</formula>
+  <conditionalFormatting sqref="H7:I31">
+    <cfRule type="expression" dxfId="55" priority="103">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="104">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K57:M67">
-    <cfRule type="expression" dxfId="87" priority="91">
-      <formula>$C57="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="92">
-      <formula>$D57="x"</formula>
+  <conditionalFormatting sqref="S32:U32 S31">
+    <cfRule type="expression" dxfId="53" priority="101">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="102">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:I67">
-    <cfRule type="expression" dxfId="85" priority="89">
-      <formula>$C57="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="90">
-      <formula>$D57="x"</formula>
+  <conditionalFormatting sqref="T31:U31">
+    <cfRule type="expression" dxfId="51" priority="97">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="98">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A26">
-    <cfRule type="expression" dxfId="83" priority="87">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="88">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="L31:M31">
+    <cfRule type="expression" dxfId="49" priority="93">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="94">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I27">
-    <cfRule type="expression" dxfId="81" priority="81">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="82">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="W46:Y46">
+    <cfRule type="expression" dxfId="47" priority="51">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="52">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28:V28 S8:S12 V8:V27 S14:S27">
-    <cfRule type="expression" dxfId="79" priority="79">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="80">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="A33:E34 A46:E47 W33:Y34 W47:Y47 A58:E58 G58:I58 G47:I47 G34:I34 K34:M34 K47:M47 K58:M58 O58:Q58 O47:Q47 O34:Q34">
+    <cfRule type="expression" dxfId="45" priority="85">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="86">
+      <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S57:U67">
-    <cfRule type="expression" dxfId="77" priority="77">
-      <formula>$C57="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
-      <formula>$D57="x"</formula>
+  <conditionalFormatting sqref="O46">
+    <cfRule type="expression" dxfId="43" priority="77">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="78">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T8:U27">
-    <cfRule type="expression" dxfId="75" priority="75">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="76">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="P46:Q46">
+    <cfRule type="expression" dxfId="41" priority="75">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="76">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S13">
-    <cfRule type="expression" dxfId="73" priority="73">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="74">
-      <formula>$D13="x"</formula>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="expression" dxfId="39" priority="69">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="70">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M27">
-    <cfRule type="expression" dxfId="71" priority="71">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
-      <formula>$D8="x"</formula>
+  <conditionalFormatting sqref="L46:M46">
+    <cfRule type="expression" dxfId="37" priority="67">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="68">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V42:Y42">
-    <cfRule type="expression" dxfId="69" priority="29">
-      <formula>$C42="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="30">
-      <formula>$D42="x"</formula>
+  <conditionalFormatting sqref="W58:Y58">
+    <cfRule type="expression" dxfId="35" priority="53">
+      <formula>$C58="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="54">
+      <formula>$D58="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z31:Z36 B36 A36:A38 C36:F38 A30:R30 A29:F29 J29 N29 R29 A31:F35 A39:F42 N31:N42 J31:J42 R31:R42 A43:R54 V29:Z30 V43:Y43 AD29:AG54">
-    <cfRule type="expression" dxfId="67" priority="63">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="64">
-      <formula>$D29="x"</formula>
+  <conditionalFormatting sqref="A59:E59 W59:Y59 G59:I59 K59:M59 O59:Q59 AA59:AC59">
+    <cfRule type="expression" dxfId="33" priority="49">
+      <formula>$C59="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="50">
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B38">
-    <cfRule type="expression" dxfId="65" priority="61">
-      <formula>$C36="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62">
-      <formula>$D36="x"</formula>
+  <conditionalFormatting sqref="S59:U59">
+    <cfRule type="expression" dxfId="31" priority="47">
+      <formula>$C59="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="48">
+      <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O32">
-    <cfRule type="expression" dxfId="63" priority="59">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="60">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="S34:U34 S47:U47 S58:U58">
+    <cfRule type="expression" dxfId="29" priority="45">
+      <formula>$C34="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="46">
+      <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q32">
-    <cfRule type="expression" dxfId="61" priority="57">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="58">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="S46">
+    <cfRule type="expression" dxfId="27" priority="39">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="40">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O33:O42">
-    <cfRule type="expression" dxfId="59" priority="55">
+  <conditionalFormatting sqref="T46:U46">
+    <cfRule type="expression" dxfId="25" priority="37">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="38">
+      <formula>$D46="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA46:AC46">
+    <cfRule type="expression" dxfId="23" priority="27">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="28">
+      <formula>$D46="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA33:AC34 AA47:AC47">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P33:Q42">
-    <cfRule type="expression" dxfId="57" priority="53">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
-      <formula>$D33="x"</formula>
+  <conditionalFormatting sqref="AA58:AC58">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>$C58="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>$D58="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K32">
-    <cfRule type="expression" dxfId="55" priority="51">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="52">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="G46:I46">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="26">
+      <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M32">
-    <cfRule type="expression" dxfId="53" priority="49">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="B28:E28 W28:Y28 G28">
+    <cfRule type="expression" dxfId="15" priority="21">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="22">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K42">
-    <cfRule type="expression" dxfId="51" priority="47">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="48">
-      <formula>$D33="x"</formula>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="20">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L33:M42">
-    <cfRule type="expression" dxfId="49" priority="45">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46">
-      <formula>$D33="x"</formula>
+  <conditionalFormatting sqref="H28:I28">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G32">
-    <cfRule type="expression" dxfId="47" priority="43">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="B48:E57 B35:E45">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I32">
-    <cfRule type="expression" dxfId="45" priority="41">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="A48:A57 A35:A45">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G40">
-    <cfRule type="expression" dxfId="43" priority="39">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
-      <formula>$D33="x"</formula>
+  <conditionalFormatting sqref="S48:S57 O48:O57 K48:K57 G48:G57 G35:G45 K35:K45 O35:O45 S35:S45 S7:S30 O7:O30 K7:K30">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33:I40">
-    <cfRule type="expression" dxfId="41" priority="37">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>$D33="x"</formula>
+  <conditionalFormatting sqref="T48:U57 P48:Q57 L48:M57 H48:I57 H35:I45 L35:M45 P35:Q45 T35:U45 T7:U30 P7:Q30 L7:M30">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V31:Y41">
-    <cfRule type="expression" dxfId="39" priority="35">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V44:Y53">
-    <cfRule type="expression" dxfId="37" priority="33">
-      <formula>$C44="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34">
-      <formula>$D44="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V54:Y54">
-    <cfRule type="expression" dxfId="35" priority="31">
-      <formula>$C54="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32">
-      <formula>$D54="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z51">
-    <cfRule type="expression" dxfId="33" priority="65">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="66">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z37 Z42:Z49">
-    <cfRule type="expression" dxfId="31" priority="67">
-      <formula>$C40="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="68">
-      <formula>$D40="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z50 Z38:Z41">
-    <cfRule type="expression" dxfId="29" priority="69">
-      <formula>$C42="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="70">
-      <formula>$D42="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:R55 W55:AK55">
-    <cfRule type="expression" dxfId="27" priority="27">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S55:V55">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S30:U30 S43:U54">
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$C30="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$D30="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S31:S32">
-    <cfRule type="expression" dxfId="21" priority="21">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:U32">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S33:S42">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D33="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T33:U42">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D33="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA42:AC42">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>$C42="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>$D42="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA29:AC30 AA43:AC43">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA31:AC41">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA44:AC53">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$C44="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>$D44="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA54:AC54">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$C54="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$D54="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:I42">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C42="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D42="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G41:I41">
+  <conditionalFormatting sqref="AA48:AC57 W48:Y57 AA35:AC45 W35:Y45 AA7:AC30">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C41="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D41="x"</formula>
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D27 C31:D42 C44:D54" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:D58 C35:D46 C7:D31" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I27 M7:M27 Q7:Q27 U7:U27 Y7:Y27 AC7:AC27 AC31:AC42 Y31:Y42 U31:U42 Q31:Q42 M31:M42 I57:I67 I44:I54 M44:M54 Q44:Q54 U44:U54 Y44:Y54 AC44:AC54 AC57:AC67 Y57:Y67 U57:U67 Q57:Q67 M57:M67 I31:I42" xr:uid="{066716C3-506D-4C0E-A23D-67D5CB3F4E55}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35:I46 AC35:AC46 Y35:Y46 U35:U46 Q35:Q46 M35:M46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 AC48:AC58 AC7:AC31 Y7:Y31 U7:U31 Q7:Q31 M7:M31 I7:I31 M61:M68 Q61:Q68 U61:U68 Y61:Y68 AC61:AC68 I61:I68" xr:uid="{066716C3-506D-4C0E-A23D-67D5CB3F4E55}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EDAE7-C370-4FA1-81EB-414D0B4F459C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8B893F-0149-434B-A6DE-900F78D3B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18255" windowHeight="5385" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1555,6 +1555,45 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1581,45 +1620,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2922,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:D66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4184,36 +4184,36 @@
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="40"/>
-      <c r="G33" s="81" t="s">
+      <c r="G33" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="83"/>
-      <c r="K33" s="81" t="s">
+      <c r="H33" s="95"/>
+      <c r="I33" s="96"/>
+      <c r="K33" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="82"/>
-      <c r="M33" s="83"/>
-      <c r="O33" s="84" t="s">
+      <c r="L33" s="95"/>
+      <c r="M33" s="96"/>
+      <c r="O33" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="86"/>
-      <c r="S33" s="84" t="s">
+      <c r="P33" s="98"/>
+      <c r="Q33" s="99"/>
+      <c r="S33" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="T33" s="85"/>
-      <c r="U33" s="86"/>
-      <c r="W33" s="78" t="s">
+      <c r="T33" s="98"/>
+      <c r="U33" s="99"/>
+      <c r="W33" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="80"/>
-      <c r="AA33" s="78" t="s">
+      <c r="X33" s="92"/>
+      <c r="Y33" s="93"/>
+      <c r="AA33" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="80"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="93"/>
     </row>
     <row r="34" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
@@ -5055,9 +5055,9 @@
       <c r="A61" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="97"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="99"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="26"/>
       <c r="G61" s="56"/>
       <c r="H61" s="52"/>
@@ -5082,11 +5082,11 @@
       <c r="A62" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="91" t="s">
+      <c r="B62" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="92"/>
-      <c r="D62" s="93"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="80"/>
       <c r="E62" s="28"/>
       <c r="G62" s="56"/>
       <c r="H62" s="52"/>
@@ -5111,11 +5111,11 @@
       <c r="A63" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="91" t="s">
+      <c r="B63" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="93"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="80"/>
       <c r="E63" s="28"/>
       <c r="G63" s="56"/>
       <c r="H63" s="52"/>
@@ -5140,11 +5140,11 @@
       <c r="A64" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="91" t="s">
+      <c r="B64" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="92"/>
-      <c r="D64" s="93"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="80"/>
       <c r="E64" s="28"/>
       <c r="G64" s="56"/>
       <c r="H64" s="52"/>
@@ -5169,11 +5169,11 @@
       <c r="A65" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="91" t="s">
+      <c r="B65" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="93"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="80"/>
       <c r="E65" s="28"/>
       <c r="G65" s="56"/>
       <c r="H65" s="52"/>
@@ -5196,9 +5196,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="93"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
       <c r="E66" s="28"/>
       <c r="G66" s="56"/>
       <c r="H66" s="52"/>
@@ -5221,9 +5221,9 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="93"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="80"/>
       <c r="E67" s="28"/>
       <c r="G67" s="56"/>
       <c r="H67" s="52"/>
@@ -5246,9 +5246,9 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="96"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="30"/>
       <c r="G68" s="58"/>
       <c r="H68" s="59"/>
@@ -5281,6 +5281,18 @@
     <protectedRange sqref="A61" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B61:D61"/>
@@ -5289,18 +5301,6 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
   </mergeCells>
   <conditionalFormatting sqref="A31:E32 K31 B7:E30 W7:Y32 G7:G31 G32:I32 K32:M32 O31:Q32 AA31:AC32">
     <cfRule type="expression" dxfId="61" priority="121">

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SuiteCRM_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8B893F-0149-434B-A6DE-900F78D3B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F992E5-177B-400F-B27A-44BF22D175A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -1555,6 +1555,45 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1581,45 +1620,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2922,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I68" activeCellId="25" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 AC35:AC46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y49:Y58 Y48 AC48:AC58 AC61:AC68 Y61:Y68 U61:U68 Q61:Q68 M61:M68 I61:I67 I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4184,36 +4184,36 @@
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="40"/>
-      <c r="G33" s="94" t="s">
+      <c r="G33" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="96"/>
-      <c r="K33" s="94" t="s">
+      <c r="H33" s="82"/>
+      <c r="I33" s="83"/>
+      <c r="K33" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="L33" s="95"/>
-      <c r="M33" s="96"/>
-      <c r="O33" s="97" t="s">
+      <c r="L33" s="82"/>
+      <c r="M33" s="83"/>
+      <c r="O33" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="99"/>
-      <c r="S33" s="97" t="s">
+      <c r="P33" s="85"/>
+      <c r="Q33" s="86"/>
+      <c r="S33" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="T33" s="98"/>
-      <c r="U33" s="99"/>
-      <c r="W33" s="91" t="s">
+      <c r="T33" s="85"/>
+      <c r="U33" s="86"/>
+      <c r="W33" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="93"/>
-      <c r="AA33" s="91" t="s">
+      <c r="X33" s="79"/>
+      <c r="Y33" s="80"/>
+      <c r="AA33" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="93"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="80"/>
     </row>
     <row r="34" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
@@ -5055,9 +5055,9 @@
       <c r="A61" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="84"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="86"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="99"/>
       <c r="E61" s="26"/>
       <c r="G61" s="56"/>
       <c r="H61" s="52"/>
@@ -5082,11 +5082,11 @@
       <c r="A62" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="78" t="s">
+      <c r="B62" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="93"/>
       <c r="E62" s="28"/>
       <c r="G62" s="56"/>
       <c r="H62" s="52"/>
@@ -5111,11 +5111,11 @@
       <c r="A63" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="78" t="s">
+      <c r="B63" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="79"/>
-      <c r="D63" s="80"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="93"/>
       <c r="E63" s="28"/>
       <c r="G63" s="56"/>
       <c r="H63" s="52"/>
@@ -5140,11 +5140,11 @@
       <c r="A64" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="80"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
       <c r="E64" s="28"/>
       <c r="G64" s="56"/>
       <c r="H64" s="52"/>
@@ -5169,11 +5169,11 @@
       <c r="A65" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="80"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="93"/>
       <c r="E65" s="28"/>
       <c r="G65" s="56"/>
       <c r="H65" s="52"/>
@@ -5196,9 +5196,9 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="93"/>
       <c r="E66" s="28"/>
       <c r="G66" s="56"/>
       <c r="H66" s="52"/>
@@ -5221,9 +5221,9 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="80"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="93"/>
       <c r="E67" s="28"/>
       <c r="G67" s="56"/>
       <c r="H67" s="52"/>
@@ -5246,9 +5246,9 @@
     </row>
     <row r="68" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="29"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="83"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="96"/>
       <c r="E68" s="30"/>
       <c r="G68" s="58"/>
       <c r="H68" s="59"/>
@@ -5281,18 +5281,6 @@
     <protectedRange sqref="A61" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B61:D61"/>
@@ -5301,6 +5289,18 @@
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
   </mergeCells>
   <conditionalFormatting sqref="A31:E32 K31 B7:E30 W7:Y32 G7:G31 G32:I32 K32:M32 O31:Q32 AA31:AC32">
     <cfRule type="expression" dxfId="61" priority="121">
@@ -5554,8 +5554,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48:D58 C35:D46 C7:D31" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I35:I46 AC35:AC46 Y35:Y46 U35:U46 Q35:Q46 M35:M46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 AC48:AC58 AC7:AC31 Y7:Y31 U7:U31 Q7:Q31 M7:M31 I7:I31 M61:M68 Q61:Q68 U61:U68 Y61:Y68 AC61:AC68 I61:I68" xr:uid="{066716C3-506D-4C0E-A23D-67D5CB3F4E55}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 AC7:AC31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 AC35:AC46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y49:Y58 Y48 AC48:AC58 AC61:AC68 Y61:Y68 U61:U68 Q61:Q68 M61:M68 I61:I67 I68" xr:uid="{424AAFBB-2E3E-4146-9957-5C546A4BBD28}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
